--- a/итс 1313 0000 000.xlsx
+++ b/итс 1313 0000 000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SERV1\docs\2. Структура\Инженерный\ПРОЕКТЫ НА РАСЧЕТ\АВТОВАЗ\АТЗ240503 - тара для панелейей дверей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\luis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA90CD-DC60-4BBF-8D7C-05B85C66A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289F0E4-4E4D-46DA-AC65-6C48EBA59FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет" sheetId="1" r:id="rId1"/>
@@ -2226,71 +2226,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,14 +2262,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6724,77 +6724,77 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="185" t="s">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="185"/>
+      <c r="C1" s="198"/>
       <c r="D1" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="194" t="s">
+      <c r="E1" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
       <c r="J1" s="117"/>
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="190"/>
+      <c r="C2" s="203"/>
       <c r="D2" s="90">
         <v>69</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
       <c r="J2" s="117"/>
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:15" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
       <c r="L3"/>
       <c r="N3" s="141" t="str">
         <f>F85</f>
@@ -6805,19 +6805,19 @@
         <v>получено из сметы</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="193" t="s">
+    <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="193"/>
+      <c r="C4" s="205"/>
       <c r="D4" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="E4" s="207" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="197"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="209"/>
       <c r="H4" s="26">
         <v>30</v>
       </c>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="186" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="186"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="30" t="s">
         <v>269</v>
       </c>
@@ -6858,11 +6858,11 @@
         <v>0.13844525044690043</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="186" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="199"/>
       <c r="D6" s="26">
         <v>0.22</v>
       </c>
@@ -6883,11 +6883,11 @@
         <v>0.31506976232923961</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="186" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="186"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="26" t="s">
         <v>270</v>
       </c>
@@ -6908,11 +6908,11 @@
         <v>0.26995010936814701</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="186" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="186"/>
+      <c r="C8" s="199"/>
       <c r="D8" s="26">
         <v>2004</v>
       </c>
@@ -6933,11 +6933,11 @@
         <v>2.2675750638807005E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="188" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="201" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="188"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="29">
         <v>16</v>
       </c>
@@ -6958,16 +6958,16 @@
         <v>8.0985032810444099E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="187" t="s">
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -6985,49 +6985,49 @@
         <v>0.16542518111870763</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="184" t="s">
+    <row r="11" spans="1:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="210" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="198" t="s">
+    <row r="13" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -7060,15 +7060,15 @@
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="199" t="s">
+    <row r="16" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="200"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="180"/>
       <c r="H16" s="8">
         <f>SUM(H17:H25)</f>
         <v>8080.8548610416674</v>
@@ -7078,19 +7078,19 @@
       <c r="K16" s="13"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>1</v>
       </c>
       <c r="C17" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="183"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="195"/>
       <c r="H17" s="149">
         <f>Лазер[[#Totals],[Стоимость 
 комплекта, руб без НДС]]</f>
@@ -7101,19 +7101,19 @@
       <c r="K17" s="13"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>2</v>
       </c>
       <c r="C18" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="183"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
       <c r="H18" s="149">
         <v>0</v>
       </c>
@@ -7122,19 +7122,19 @@
       <c r="K18" s="13"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>3</v>
       </c>
       <c r="C19" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="193" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="195"/>
       <c r="H19" s="149">
         <v>0</v>
       </c>
@@ -7143,19 +7143,19 @@
       <c r="K19" s="13"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>4</v>
       </c>
       <c r="C20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="181" t="s">
+      <c r="D20" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="183"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
       <c r="H20" s="149">
         <v>559</v>
       </c>
@@ -7164,19 +7164,19 @@
       <c r="K20" s="13"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="26">
         <v>5</v>
       </c>
       <c r="C21" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="183"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="195"/>
       <c r="H21" s="149">
         <v>0</v>
       </c>
@@ -7185,19 +7185,19 @@
       <c r="K21" s="13"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="26">
         <v>6</v>
       </c>
       <c r="C22" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="183"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="195"/>
       <c r="H22" s="149">
         <v>0</v>
       </c>
@@ -7206,19 +7206,19 @@
       <c r="K22" s="13"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="26">
         <v>7</v>
       </c>
       <c r="C23" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="183"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="195"/>
       <c r="H23" s="149">
         <v>0</v>
       </c>
@@ -7227,19 +7227,19 @@
       <c r="K23" s="13"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="26">
         <v>8</v>
       </c>
       <c r="C24" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="183"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="195"/>
       <c r="H24" s="149">
         <v>0</v>
       </c>
@@ -7248,19 +7248,19 @@
       <c r="K24" s="13"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="26">
         <v>9</v>
       </c>
       <c r="C25" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="183"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="195"/>
       <c r="H25" s="149">
         <v>0</v>
       </c>
@@ -7269,15 +7269,15 @@
       <c r="K25" s="13"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="199" t="s">
+    <row r="26" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="200"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="180"/>
       <c r="H26" s="8">
         <f>SUM($H$27:$H$57)</f>
         <v>18390.179599999996</v>
@@ -7287,7 +7287,7 @@
       <c r="K26" s="13"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="26">
         <v>1</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="K27" s="13"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="165">
         <v>2</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="K28" s="13"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="165">
         <v>3</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="K29" s="13"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="165">
         <v>4</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="K30" s="13"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="165">
         <v>5</v>
       </c>
@@ -7427,7 +7427,7 @@
       <c r="K31" s="13"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="165">
         <v>6</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="K32" s="13"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="165">
         <v>7</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="K33" s="13"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="165">
         <v>8</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="K34" s="13"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="165">
         <v>9</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="K35" s="13"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="165">
         <v>10</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="K36" s="13"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="165">
         <v>11</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="K37" s="13"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B38" s="165">
         <v>12</v>
       </c>
@@ -7623,7 +7623,7 @@
       <c r="K38" s="13"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B39" s="165">
         <v>13</v>
       </c>
@@ -7651,7 +7651,7 @@
       <c r="K39" s="13"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B40" s="165">
         <v>14</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="K40" s="13"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B41" s="165">
         <v>15</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="K41" s="13"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="165">
         <v>16</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="K42" s="13"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B43" s="165">
         <v>17</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="K43" s="13"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B44" s="165">
         <v>18</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="K44" s="13"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B45" s="165">
         <v>19</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="K45" s="13"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B46" s="165">
         <v>20</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="K46" s="13"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B47" s="165">
         <v>21</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="K47" s="13"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B48" s="165">
         <v>22</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="K48" s="13"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B49" s="165">
         <v>23</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="K49" s="13"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B50" s="165">
         <v>24</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="K50" s="13"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B51" s="165">
         <v>25</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="K51" s="13"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" s="165">
         <v>26</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="K52" s="13"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53" s="165">
         <v>27</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="K53" s="13"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" s="165">
         <v>28</v>
       </c>
@@ -8071,7 +8071,7 @@
       <c r="K54" s="13"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B55" s="165">
         <v>29</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="K55" s="13"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B56" s="165">
         <v>30</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="K56" s="13"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" s="165">
         <v>31</v>
       </c>
@@ -8155,15 +8155,15 @@
       <c r="K57" s="13"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="208" t="s">
+      <c r="E58" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="208"/>
-      <c r="G58" s="208"/>
+      <c r="F58" s="196"/>
+      <c r="G58" s="196"/>
       <c r="H58" s="118">
         <f>H26+H16</f>
         <v>26471.034461041665</v>
@@ -8173,7 +8173,7 @@
       <c r="K58" s="13"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8193,7 +8193,7 @@
       <c r="K59" s="13"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8206,23 +8206,23 @@
       <c r="K60" s="13"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="205" t="s">
+      <c r="B61" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="206"/>
-      <c r="D61" s="206"/>
-      <c r="E61" s="206"/>
-      <c r="F61" s="206"/>
-      <c r="G61" s="206"/>
-      <c r="H61" s="206"/>
-      <c r="I61" s="206"/>
-      <c r="J61" s="206"/>
-      <c r="K61" s="207"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="186"/>
+      <c r="I61" s="186"/>
+      <c r="J61" s="186"/>
+      <c r="K61" s="187"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -8234,15 +8234,15 @@
       <c r="J62" s="26"/>
       <c r="K62" s="26"/>
     </row>
-    <row r="63" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="199" t="s">
+      <c r="C63" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="200"/>
+      <c r="D63" s="180"/>
       <c r="E63" s="3" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
     </row>
-    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="4">
         <v>1</v>
@@ -8268,9 +8268,9 @@
         <v>78</v>
       </c>
       <c r="D64" s="147"/>
-      <c r="E64" s="201"/>
-      <c r="F64" s="202"/>
-      <c r="G64" s="203"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="182"/>
+      <c r="G64" s="183"/>
       <c r="H64" s="149">
         <f>'Оценка сетки'!J157</f>
         <v>0</v>
@@ -8279,7 +8279,7 @@
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
     </row>
-    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="4">
         <v>2</v>
@@ -8305,7 +8305,7 @@
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
     </row>
-    <row r="66" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="4">
         <v>3</v>
@@ -8332,7 +8332,7 @@
       <c r="J66" s="26"/>
       <c r="K66" s="26"/>
     </row>
-    <row r="67" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="4">
         <v>4</v>
@@ -8359,7 +8359,7 @@
       <c r="J67" s="26"/>
       <c r="K67" s="26"/>
     </row>
-    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="4">
         <v>5</v>
@@ -8386,7 +8386,7 @@
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
     </row>
-    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="4">
         <v>6</v>
@@ -8414,7 +8414,7 @@
       <c r="J69" s="26"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="4">
         <v>7</v>
@@ -8441,7 +8441,7 @@
       <c r="J70" s="26"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="4">
         <v>8</v>
@@ -8468,7 +8468,7 @@
       <c r="J71" s="26"/>
       <c r="K71" s="26"/>
     </row>
-    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="4">
         <v>9</v>
@@ -8495,7 +8495,7 @@
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="4">
         <v>10</v>
@@ -8522,7 +8522,7 @@
       <c r="J73" s="26"/>
       <c r="K73" s="26"/>
     </row>
-    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4">
         <v>11</v>
@@ -8549,7 +8549,7 @@
       <c r="J74" s="26"/>
       <c r="K74" s="26"/>
     </row>
-    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="4">
         <v>12</v>
@@ -8575,7 +8575,7 @@
       <c r="J75" s="26"/>
       <c r="K75" s="26"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="4">
         <v>13</v>
@@ -8597,28 +8597,28 @@
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
     </row>
-    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="208" t="s">
+      <c r="E77" s="196" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="208"/>
-      <c r="G77" s="208"/>
+      <c r="F77" s="196"/>
+      <c r="G77" s="196"/>
       <c r="H77" s="118">
         <f>IF(($D$2&lt;=7),(SUM(H64:H76))*2,SUM(H64:H76))+L79</f>
         <v>15756.608814565217</v>
       </c>
-      <c r="J77" s="191" t="s">
+      <c r="J77" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="K77" s="191"/>
-      <c r="L77" s="191"/>
+      <c r="K77" s="197"/>
+      <c r="L77" s="197"/>
       <c r="O77" s="125"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -8644,7 +8644,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -8670,7 +8670,7 @@
         <v>404.89130434782618</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -8687,7 +8687,7 @@
         <v>9655.635528605706</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -8702,7 +8702,7 @@
         <v>58368.595780329888</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -8729,7 +8729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -8738,7 +8738,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="119" t="s">
         <v>130</v>
@@ -8751,7 +8751,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="129" t="str">
         <f>B16</f>
@@ -8769,7 +8769,7 @@
         <v>0.13844525044690043</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="121" t="s">
         <v>132</v>
@@ -8781,13 +8781,13 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="121"/>
       <c r="C88" s="120"/>
       <c r="F88" s="122"/>
     </row>
-    <row r="89" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="126" t="str">
         <f>B26</f>
@@ -8805,7 +8805,7 @@
         <v>0.31506976232923961</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="121" t="s">
         <v>134</v>
@@ -8819,7 +8819,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="121"/>
       <c r="C91" s="120"/>
@@ -8827,7 +8827,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="125"/>
     </row>
-    <row r="92" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="126" t="str">
         <f>E77</f>
@@ -8845,7 +8845,7 @@
         <v>0.26995010936814701</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="131" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="131" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="130"/>
       <c r="B93" s="133" t="s">
         <v>148</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="G93" s="130"/>
     </row>
-    <row r="94" spans="1:9" s="131" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="131" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="130"/>
       <c r="B94" s="133" t="s">
         <v>149</v>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="G94" s="130"/>
     </row>
-    <row r="95" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="133" t="s">
         <v>172</v>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="G95" s="130"/>
     </row>
-    <row r="96" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="121" t="s">
         <v>152</v>
@@ -8903,14 +8903,14 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="121"/>
       <c r="C97" s="132"/>
       <c r="F97" s="125"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="126" t="str">
         <f>F59</f>
@@ -8928,7 +8928,7 @@
         <v>2.2675750638807005E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="121" t="s">
         <v>141</v>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="121" t="s">
         <v>150</v>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="121" t="s">
         <v>154</v>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="121" t="s">
         <v>160</v>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="121" t="s">
         <v>137</v>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="121" t="s">
         <v>138</v>
@@ -9012,14 +9012,14 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="121"/>
       <c r="C105" s="132"/>
       <c r="F105" s="125"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="126" t="str">
         <f>F78</f>
@@ -9037,7 +9037,7 @@
         <v>8.0985032810444099E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="121" t="s">
         <v>146</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" s="131" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="131" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="130"/>
       <c r="B108" s="133" t="s">
         <v>147</v>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="G108" s="130"/>
     </row>
-    <row r="109" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="133" t="s">
         <v>158</v>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="G109" s="130"/>
     </row>
-    <row r="110" spans="1:7" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="133"/>
       <c r="C110" s="132"/>
@@ -9089,7 +9089,7 @@
       <c r="F110" s="134"/>
       <c r="G110" s="130"/>
     </row>
-    <row r="111" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="126" t="str">
         <f>F80</f>
@@ -9107,7 +9107,7 @@
         <v>0.16542518111870763</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="133" t="s">
         <v>171</v>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="G112" s="130"/>
     </row>
-    <row r="113" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="121" t="s">
         <v>163</v>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="121" t="s">
         <v>165</v>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="133" t="s">
         <v>177</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="G115" s="130"/>
     </row>
-    <row r="116" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="133" t="s">
         <v>175</v>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="G116" s="130"/>
     </row>
-    <row r="117" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="121" t="s">
         <v>168</v>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="121" t="s">
         <v>166</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="133" t="s">
         <v>179</v>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="G119" s="130"/>
     </row>
-    <row r="120" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="133"/>
       <c r="C120" s="140" t="s">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="G120" s="130"/>
     </row>
-    <row r="121" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="133"/>
       <c r="C121" s="140" t="s">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="G121" s="130"/>
     </row>
-    <row r="122" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="121"/>
       <c r="C122" s="140" t="s">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:12" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="7.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="133"/>
       <c r="C123" s="132"/>
@@ -9265,7 +9265,7 @@
       <c r="F123" s="134"/>
       <c r="G123" s="130"/>
     </row>
-    <row r="124" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="126" t="str">
         <f>F82</f>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="121" t="s">
         <v>159</v>
@@ -9296,26 +9296,26 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:12" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="128" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="198" t="s">
+    <row r="128" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="198"/>
-      <c r="D128" s="198"/>
-      <c r="E128" s="198"/>
-      <c r="F128" s="198"/>
-      <c r="G128" s="198"/>
-      <c r="H128" s="198"/>
-      <c r="I128" s="198"/>
-      <c r="J128" s="198"/>
-      <c r="K128" s="198"/>
-      <c r="L128" s="198"/>
-    </row>
-    <row r="130" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="178"/>
+      <c r="D128" s="178"/>
+      <c r="E128" s="178"/>
+      <c r="F128" s="178"/>
+      <c r="G128" s="178"/>
+      <c r="H128" s="178"/>
+      <c r="I128" s="178"/>
+      <c r="J128" s="178"/>
+      <c r="K128" s="178"/>
+      <c r="L128" s="178"/>
+    </row>
+    <row r="130" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
@@ -9323,11 +9323,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="B131" s="178">
+    <row r="131" spans="2:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B131" s="188">
         <v>1</v>
       </c>
-      <c r="C131" s="176"/>
+      <c r="C131" s="191"/>
       <c r="D131" s="11" t="s">
         <v>9</v>
       </c>
@@ -9359,9 +9359,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B132" s="179"/>
-      <c r="C132" s="177"/>
+    <row r="132" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B132" s="189"/>
+      <c r="C132" s="192"/>
       <c r="D132" s="111">
         <v>1</v>
       </c>
@@ -9390,13 +9390,13 @@
       </c>
       <c r="K132" s="113"/>
       <c r="L132" s="155"/>
-      <c r="M132" s="209">
+      <c r="M132" s="176">
         <f>IFERROR((180/($D$2*D132)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="180"/>
+    <row r="133" spans="2:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="190"/>
       <c r="C133" s="16"/>
       <c r="D133" s="114">
         <v>1</v>
@@ -9432,9 +9432,9 @@
         <f>J132+J133</f>
         <v>2361.3392700000004</v>
       </c>
-      <c r="M133" s="210"/>
-    </row>
-    <row r="134" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="177"/>
+    </row>
+    <row r="134" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B134" s="20"/>
       <c r="C134" s="20" t="s">
         <v>286</v>
@@ -9452,7 +9452,7 @@
       <c r="L134" s="157"/>
       <c r="M134" s="26"/>
     </row>
-    <row r="135" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B135" s="20"/>
       <c r="C135" s="20" t="s">
         <v>287</v>
@@ -9470,7 +9470,7 @@
       <c r="L135" s="157"/>
       <c r="M135" s="26"/>
     </row>
-    <row r="136" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B136" s="20"/>
       <c r="C136" s="20" t="s">
         <v>288</v>
@@ -9488,7 +9488,7 @@
       <c r="L136" s="157"/>
       <c r="M136" s="26"/>
     </row>
-    <row r="137" spans="2:13" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="20"/>
       <c r="C137" s="20" t="s">
         <v>289</v>
@@ -9506,7 +9506,7 @@
       <c r="L137" s="157"/>
       <c r="M137" s="26"/>
     </row>
-    <row r="138" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B138" s="19"/>
       <c r="C138" s="20" t="s">
         <v>290</v>
@@ -9524,7 +9524,7 @@
       <c r="L138" s="103"/>
       <c r="M138" s="26"/>
     </row>
-    <row r="139" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B139" s="19"/>
       <c r="C139" s="20" t="s">
         <v>291</v>
@@ -9542,7 +9542,7 @@
       <c r="L139" s="103"/>
       <c r="M139" s="26"/>
     </row>
-    <row r="140" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B140" s="19"/>
       <c r="C140" s="20" t="s">
         <v>292</v>
@@ -9560,7 +9560,7 @@
       <c r="L140" s="103"/>
       <c r="M140" s="26"/>
     </row>
-    <row r="141" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B141" s="19"/>
       <c r="C141" s="20" t="s">
         <v>293</v>
@@ -9578,7 +9578,7 @@
       <c r="L141" s="103"/>
       <c r="M141" s="26"/>
     </row>
-    <row r="142" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="27"/>
       <c r="C142" s="20" t="s">
         <v>294</v>
@@ -9597,10 +9597,10 @@
       <c r="M142" s="26"/>
     </row>
     <row r="143" spans="2:13" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="178">
+      <c r="B143" s="188">
         <v>2</v>
       </c>
-      <c r="C143" s="176"/>
+      <c r="C143" s="191"/>
       <c r="D143" s="11" t="s">
         <v>9</v>
       </c>
@@ -9632,9 +9632,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="2:13" customFormat="1" ht="15.6" x14ac:dyDescent="0.2">
-      <c r="B144" s="179"/>
-      <c r="C144" s="177"/>
+    <row r="144" spans="2:13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B144" s="189"/>
+      <c r="C144" s="192"/>
       <c r="D144" s="111">
         <v>1</v>
       </c>
@@ -9663,13 +9663,13 @@
       </c>
       <c r="K144" s="113"/>
       <c r="L144" s="155"/>
-      <c r="M144" s="209">
+      <c r="M144" s="176">
         <f>IFERROR((180/($D$2*D144)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="145" spans="2:13" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="180"/>
+    <row r="145" spans="2:13" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="190"/>
       <c r="C145" s="16"/>
       <c r="D145" s="114">
         <v>1</v>
@@ -9705,9 +9705,9 @@
         <f t="shared" ref="L145" si="9">J144+J145</f>
         <v>65.773275000000012</v>
       </c>
-      <c r="M145" s="210"/>
-    </row>
-    <row r="146" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="177"/>
+    </row>
+    <row r="146" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B146" s="20"/>
       <c r="C146" s="20" t="s">
         <v>295</v>
@@ -9725,7 +9725,7 @@
       <c r="L146" s="157"/>
       <c r="M146" s="13"/>
     </row>
-    <row r="147" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B147" s="19"/>
       <c r="C147" s="20" t="s">
         <v>296</v>
@@ -9743,7 +9743,7 @@
       <c r="L147" s="103"/>
       <c r="M147" s="13"/>
     </row>
-    <row r="148" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B148" s="19"/>
       <c r="C148" s="20" t="s">
         <v>297</v>
@@ -9761,7 +9761,7 @@
       <c r="L148" s="103"/>
       <c r="M148" s="13"/>
     </row>
-    <row r="149" spans="2:13" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B149" s="19"/>
       <c r="C149" s="20"/>
       <c r="D149" s="112"/>
@@ -9775,7 +9775,7 @@
       <c r="L149" s="103"/>
       <c r="M149" s="13"/>
     </row>
-    <row r="150" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B150" s="19"/>
       <c r="C150" s="20"/>
       <c r="D150" s="112"/>
@@ -9789,7 +9789,7 @@
       <c r="L150" s="103"/>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="2:13" customFormat="1" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B151" s="27"/>
       <c r="C151" s="20"/>
       <c r="D151" s="112"/>
@@ -9803,11 +9803,11 @@
       <c r="L151" s="158"/>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="178">
+    <row r="152" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="188">
         <v>3</v>
       </c>
-      <c r="C152" s="176"/>
+      <c r="C152" s="191"/>
       <c r="D152" s="11" t="s">
         <v>9</v>
       </c>
@@ -9839,9 +9839,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B153" s="179"/>
-      <c r="C153" s="177"/>
+    <row r="153" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B153" s="189"/>
+      <c r="C153" s="192"/>
       <c r="D153" s="111">
         <v>1</v>
       </c>
@@ -9870,13 +9870,13 @@
       </c>
       <c r="K153" s="113"/>
       <c r="L153" s="155"/>
-      <c r="M153" s="209">
+      <c r="M153" s="176">
         <f>IFERROR((180/($D$2*D153)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="180"/>
+    <row r="154" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="190"/>
       <c r="C154" s="16"/>
       <c r="D154" s="114">
         <v>1</v>
@@ -9912,9 +9912,9 @@
         <f t="shared" ref="L154" si="16">J153+J154</f>
         <v>575.53305</v>
       </c>
-      <c r="M154" s="210"/>
-    </row>
-    <row r="155" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="177"/>
+    </row>
+    <row r="155" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B155" s="20"/>
       <c r="C155" s="20" t="s">
         <v>298</v>
@@ -9932,7 +9932,7 @@
       <c r="L155" s="157"/>
       <c r="M155" s="26"/>
     </row>
-    <row r="156" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B156" s="19"/>
       <c r="C156" s="20" t="s">
         <v>299</v>
@@ -9950,7 +9950,7 @@
       <c r="L156" s="103"/>
       <c r="M156" s="26"/>
     </row>
-    <row r="157" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B157" s="19"/>
       <c r="C157" s="20" t="s">
         <v>300</v>
@@ -9968,7 +9968,7 @@
       <c r="L157" s="103"/>
       <c r="M157" s="26"/>
     </row>
-    <row r="158" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B158" s="19"/>
       <c r="C158" s="20" t="s">
         <v>301</v>
@@ -9986,7 +9986,7 @@
       <c r="L158" s="103"/>
       <c r="M158" s="26"/>
     </row>
-    <row r="159" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B159" s="19"/>
       <c r="C159" s="20" t="s">
         <v>302</v>
@@ -10004,7 +10004,7 @@
       <c r="L159" s="103"/>
       <c r="M159" s="26"/>
     </row>
-    <row r="160" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B160" s="27"/>
       <c r="C160" s="20" t="s">
         <v>303</v>
@@ -10022,11 +10022,11 @@
       <c r="L160" s="158"/>
       <c r="M160" s="26"/>
     </row>
-    <row r="161" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="178">
+    <row r="161" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="188">
         <v>4</v>
       </c>
-      <c r="C161" s="176"/>
+      <c r="C161" s="191"/>
       <c r="D161" s="11" t="s">
         <v>9</v>
       </c>
@@ -10058,9 +10058,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B162" s="179"/>
-      <c r="C162" s="177"/>
+    <row r="162" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B162" s="189"/>
+      <c r="C162" s="192"/>
       <c r="D162" s="111">
         <v>2</v>
       </c>
@@ -10089,13 +10089,13 @@
       </c>
       <c r="K162" s="113"/>
       <c r="L162" s="155"/>
-      <c r="M162" s="209">
+      <c r="M162" s="176">
         <f>IFERROR((180/($D$2*D162)),0)</f>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="180"/>
+    <row r="163" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="190"/>
       <c r="C163" s="16"/>
       <c r="D163" s="114">
         <v>2</v>
@@ -10131,9 +10131,9 @@
         <f t="shared" ref="L163" si="23">J162+J163</f>
         <v>258.90000000000003</v>
       </c>
-      <c r="M163" s="210"/>
-    </row>
-    <row r="164" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="177"/>
+    </row>
+    <row r="164" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B164" s="20"/>
       <c r="C164" s="20" t="s">
         <v>304</v>
@@ -10151,7 +10151,7 @@
       <c r="L164" s="157"/>
       <c r="M164" s="26"/>
     </row>
-    <row r="165" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B165" s="19"/>
       <c r="C165" s="20" t="s">
         <v>305</v>
@@ -10169,7 +10169,7 @@
       <c r="L165" s="103"/>
       <c r="M165" s="26"/>
     </row>
-    <row r="166" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B166" s="19"/>
       <c r="C166" s="20"/>
       <c r="D166" s="112"/>
@@ -10183,7 +10183,7 @@
       <c r="L166" s="103"/>
       <c r="M166" s="26"/>
     </row>
-    <row r="167" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B167" s="19"/>
       <c r="C167" s="20"/>
       <c r="D167" s="112"/>
@@ -10197,7 +10197,7 @@
       <c r="L167" s="103"/>
       <c r="M167" s="26"/>
     </row>
-    <row r="168" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B168" s="19"/>
       <c r="C168" s="20"/>
       <c r="D168" s="112"/>
@@ -10211,7 +10211,7 @@
       <c r="L168" s="103"/>
       <c r="M168" s="26"/>
     </row>
-    <row r="169" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="27"/>
       <c r="C169" s="20"/>
       <c r="D169" s="112"/>
@@ -10225,11 +10225,11 @@
       <c r="L169" s="158"/>
       <c r="M169" s="26"/>
     </row>
-    <row r="170" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="178">
+    <row r="170" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="188">
         <v>5</v>
       </c>
-      <c r="C170" s="176"/>
+      <c r="C170" s="191"/>
       <c r="D170" s="11" t="s">
         <v>9</v>
       </c>
@@ -10261,9 +10261,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B171" s="179"/>
-      <c r="C171" s="177"/>
+    <row r="171" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B171" s="189"/>
+      <c r="C171" s="192"/>
       <c r="D171" s="111">
         <v>2</v>
       </c>
@@ -10292,13 +10292,13 @@
       </c>
       <c r="K171" s="113"/>
       <c r="L171" s="155"/>
-      <c r="M171" s="209">
+      <c r="M171" s="176">
         <f>IFERROR((180/($D$2*D171)),0)</f>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="172" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="180"/>
+    <row r="172" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="190"/>
       <c r="C172" s="16"/>
       <c r="D172" s="114">
         <v>2</v>
@@ -10334,9 +10334,9 @@
         <f t="shared" ref="L172" si="30">J171+J172</f>
         <v>1214.31015</v>
       </c>
-      <c r="M172" s="210"/>
-    </row>
-    <row r="173" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="177"/>
+    </row>
+    <row r="173" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B173" s="20"/>
       <c r="C173" s="20" t="s">
         <v>306</v>
@@ -10354,7 +10354,7 @@
       <c r="L173" s="157"/>
       <c r="M173" s="26"/>
     </row>
-    <row r="174" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B174" s="19"/>
       <c r="C174" s="20" t="s">
         <v>307</v>
@@ -10372,7 +10372,7 @@
       <c r="L174" s="103"/>
       <c r="M174" s="26"/>
     </row>
-    <row r="175" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B175" s="19"/>
       <c r="C175" s="20" t="s">
         <v>308</v>
@@ -10390,7 +10390,7 @@
       <c r="L175" s="103"/>
       <c r="M175" s="26"/>
     </row>
-    <row r="176" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B176" s="19"/>
       <c r="C176" s="20" t="s">
         <v>309</v>
@@ -10408,7 +10408,7 @@
       <c r="L176" s="103"/>
       <c r="M176" s="26"/>
     </row>
-    <row r="177" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B177" s="19"/>
       <c r="C177" s="20" t="s">
         <v>310</v>
@@ -10426,7 +10426,7 @@
       <c r="L177" s="103"/>
       <c r="M177" s="26"/>
     </row>
-    <row r="178" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B178" s="27"/>
       <c r="C178" s="20"/>
       <c r="D178" s="112"/>
@@ -10440,11 +10440,11 @@
       <c r="L178" s="158"/>
       <c r="M178" s="26"/>
     </row>
-    <row r="179" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="178">
+    <row r="179" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="188">
         <v>6</v>
       </c>
-      <c r="C179" s="176"/>
+      <c r="C179" s="191"/>
       <c r="D179" s="11" t="s">
         <v>9</v>
       </c>
@@ -10476,9 +10476,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B180" s="179"/>
-      <c r="C180" s="177"/>
+    <row r="180" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B180" s="189"/>
+      <c r="C180" s="192"/>
       <c r="D180" s="111">
         <v>1</v>
       </c>
@@ -10507,13 +10507,13 @@
       </c>
       <c r="K180" s="113"/>
       <c r="L180" s="155"/>
-      <c r="M180" s="209">
+      <c r="M180" s="176">
         <f>IFERROR((180/($D$2*D180)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="181" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="180"/>
+    <row r="181" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="190"/>
       <c r="C181" s="16"/>
       <c r="D181" s="114">
         <v>1</v>
@@ -10549,9 +10549,9 @@
         <f t="shared" ref="L181" si="37">J180+J181</f>
         <v>592.3259250000001</v>
       </c>
-      <c r="M181" s="210"/>
-    </row>
-    <row r="182" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="177"/>
+    </row>
+    <row r="182" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B182" s="20"/>
       <c r="C182" s="20" t="s">
         <v>311</v>
@@ -10569,7 +10569,7 @@
       <c r="L182" s="157"/>
       <c r="M182" s="26"/>
     </row>
-    <row r="183" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B183" s="19"/>
       <c r="C183" s="20" t="s">
         <v>312</v>
@@ -10587,7 +10587,7 @@
       <c r="L183" s="103"/>
       <c r="M183" s="26"/>
     </row>
-    <row r="184" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B184" s="19"/>
       <c r="C184" s="20" t="s">
         <v>313</v>
@@ -10605,7 +10605,7 @@
       <c r="L184" s="103"/>
       <c r="M184" s="26"/>
     </row>
-    <row r="185" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B185" s="19"/>
       <c r="C185" s="20" t="s">
         <v>314</v>
@@ -10623,7 +10623,7 @@
       <c r="L185" s="103"/>
       <c r="M185" s="26"/>
     </row>
-    <row r="186" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B186" s="19"/>
       <c r="C186" s="20" t="s">
         <v>315</v>
@@ -10641,7 +10641,7 @@
       <c r="L186" s="103"/>
       <c r="M186" s="26"/>
     </row>
-    <row r="187" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="27"/>
       <c r="C187" s="20"/>
       <c r="D187" s="112"/>
@@ -10655,11 +10655,11 @@
       <c r="L187" s="158"/>
       <c r="M187" s="26"/>
     </row>
-    <row r="188" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="178">
+    <row r="188" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="188">
         <v>7</v>
       </c>
-      <c r="C188" s="176"/>
+      <c r="C188" s="191"/>
       <c r="D188" s="11" t="s">
         <v>9</v>
       </c>
@@ -10691,9 +10691,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B189" s="179"/>
-      <c r="C189" s="177"/>
+    <row r="189" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B189" s="189"/>
+      <c r="C189" s="192"/>
       <c r="D189" s="111">
         <v>1</v>
       </c>
@@ -10722,13 +10722,13 @@
       </c>
       <c r="K189" s="113"/>
       <c r="L189" s="155"/>
-      <c r="M189" s="209">
+      <c r="M189" s="176">
         <f>IFERROR((180/($D$2*D189)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="190" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="180"/>
+    <row r="190" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="190"/>
       <c r="C190" s="16"/>
       <c r="D190" s="114">
         <v>1</v>
@@ -10764,9 +10764,9 @@
         <f t="shared" ref="L190" si="44">J189+J190</f>
         <v>120.27397499999999</v>
       </c>
-      <c r="M190" s="210"/>
-    </row>
-    <row r="191" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M190" s="177"/>
+    </row>
+    <row r="191" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B191" s="20"/>
       <c r="C191" s="20" t="s">
         <v>316</v>
@@ -10784,7 +10784,7 @@
       <c r="L191" s="157"/>
       <c r="M191" s="26"/>
     </row>
-    <row r="192" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B192" s="19"/>
       <c r="C192" s="20" t="s">
         <v>317</v>
@@ -10802,7 +10802,7 @@
       <c r="L192" s="103"/>
       <c r="M192" s="26"/>
     </row>
-    <row r="193" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B193" s="19"/>
       <c r="C193" s="20" t="s">
         <v>318</v>
@@ -10820,7 +10820,7 @@
       <c r="L193" s="103"/>
       <c r="M193" s="26"/>
     </row>
-    <row r="194" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B194" s="19"/>
       <c r="C194" s="20"/>
       <c r="D194" s="112"/>
@@ -10834,7 +10834,7 @@
       <c r="L194" s="103"/>
       <c r="M194" s="26"/>
     </row>
-    <row r="195" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B195" s="19"/>
       <c r="C195" s="20"/>
       <c r="D195" s="112"/>
@@ -10848,7 +10848,7 @@
       <c r="L195" s="103"/>
       <c r="M195" s="26"/>
     </row>
-    <row r="196" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B196" s="27"/>
       <c r="C196" s="20"/>
       <c r="D196" s="112"/>
@@ -10862,11 +10862,11 @@
       <c r="L196" s="158"/>
       <c r="M196" s="26"/>
     </row>
-    <row r="197" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="178">
+    <row r="197" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="188">
         <v>8</v>
       </c>
-      <c r="C197" s="176"/>
+      <c r="C197" s="191"/>
       <c r="D197" s="11" t="s">
         <v>9</v>
       </c>
@@ -10898,9 +10898,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="198" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B198" s="179"/>
-      <c r="C198" s="177"/>
+    <row r="198" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B198" s="189"/>
+      <c r="C198" s="192"/>
       <c r="D198" s="111">
         <v>1</v>
       </c>
@@ -10929,13 +10929,13 @@
       </c>
       <c r="K198" s="113"/>
       <c r="L198" s="155"/>
-      <c r="M198" s="209">
+      <c r="M198" s="176">
         <f>IFERROR((180/($D$2*D198)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="199" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="180"/>
+    <row r="199" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="190"/>
       <c r="C199" s="16"/>
       <c r="D199" s="114">
         <v>1</v>
@@ -10971,9 +10971,9 @@
         <f t="shared" ref="L199" si="51">J198+J199</f>
         <v>110.37645000000001</v>
       </c>
-      <c r="M199" s="210"/>
-    </row>
-    <row r="200" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="177"/>
+    </row>
+    <row r="200" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B200" s="20"/>
       <c r="C200" s="20" t="s">
         <v>317</v>
@@ -10991,7 +10991,7 @@
       <c r="L200" s="157"/>
       <c r="M200" s="26"/>
     </row>
-    <row r="201" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B201" s="19"/>
       <c r="C201" s="20" t="s">
         <v>318</v>
@@ -11009,7 +11009,7 @@
       <c r="L201" s="103"/>
       <c r="M201" s="26"/>
     </row>
-    <row r="202" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B202" s="19"/>
       <c r="C202" s="20" t="s">
         <v>316</v>
@@ -11027,7 +11027,7 @@
       <c r="L202" s="103"/>
       <c r="M202" s="26"/>
     </row>
-    <row r="203" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
       <c r="D203" s="112"/>
@@ -11041,7 +11041,7 @@
       <c r="L203" s="103"/>
       <c r="M203" s="26"/>
     </row>
-    <row r="204" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
       <c r="D204" s="112"/>
@@ -11055,7 +11055,7 @@
       <c r="L204" s="103"/>
       <c r="M204" s="26"/>
     </row>
-    <row r="205" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="27"/>
       <c r="C205" s="20"/>
       <c r="D205" s="112"/>
@@ -11069,11 +11069,11 @@
       <c r="L205" s="158"/>
       <c r="M205" s="26"/>
     </row>
-    <row r="206" spans="2:13" ht="84" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="178">
+    <row r="206" spans="2:13" ht="84" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="188">
         <v>9</v>
       </c>
-      <c r="C206" s="176"/>
+      <c r="C206" s="191"/>
       <c r="D206" s="11" t="s">
         <v>9</v>
       </c>
@@ -11105,9 +11105,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="207" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B207" s="179"/>
-      <c r="C207" s="177"/>
+    <row r="207" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B207" s="189"/>
+      <c r="C207" s="192"/>
       <c r="D207" s="111">
         <v>1</v>
       </c>
@@ -11136,13 +11136,13 @@
       </c>
       <c r="K207" s="113"/>
       <c r="L207" s="155"/>
-      <c r="M207" s="209">
+      <c r="M207" s="176">
         <f>IFERROR((180/($D$2*D207)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="208" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="180"/>
+    <row r="208" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="190"/>
       <c r="C208" s="16"/>
       <c r="D208" s="114">
         <v>1</v>
@@ -11178,9 +11178,9 @@
         <f t="shared" ref="L208" si="58">J207+J208</f>
         <v>793.947</v>
       </c>
-      <c r="M208" s="210"/>
-    </row>
-    <row r="209" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M208" s="177"/>
+    </row>
+    <row r="209" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B209" s="20"/>
       <c r="C209" s="20" t="s">
         <v>319</v>
@@ -11198,7 +11198,7 @@
       <c r="L209" s="157"/>
       <c r="M209" s="26"/>
     </row>
-    <row r="210" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B210" s="20"/>
       <c r="C210" s="20" t="s">
         <v>320</v>
@@ -11216,7 +11216,7 @@
       <c r="L210" s="157"/>
       <c r="M210" s="26"/>
     </row>
-    <row r="211" spans="2:13" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B211" s="20"/>
       <c r="C211" s="20" t="s">
         <v>321</v>
@@ -11234,7 +11234,7 @@
       <c r="L211" s="157"/>
       <c r="M211" s="26"/>
     </row>
-    <row r="212" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B212" s="19"/>
       <c r="C212" s="20" t="s">
         <v>322</v>
@@ -11252,7 +11252,7 @@
       <c r="L212" s="103"/>
       <c r="M212" s="26"/>
     </row>
-    <row r="213" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B213" s="19"/>
       <c r="C213" s="20" t="s">
         <v>323</v>
@@ -11270,7 +11270,7 @@
       <c r="L213" s="103"/>
       <c r="M213" s="26"/>
     </row>
-    <row r="214" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B214" s="19"/>
       <c r="C214" s="20" t="s">
         <v>324</v>
@@ -11288,7 +11288,7 @@
       <c r="L214" s="103"/>
       <c r="M214" s="26"/>
     </row>
-    <row r="215" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B215" s="19"/>
       <c r="C215" s="20" t="s">
         <v>325</v>
@@ -11306,7 +11306,7 @@
       <c r="L215" s="103"/>
       <c r="M215" s="26"/>
     </row>
-    <row r="216" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B216" s="27"/>
       <c r="C216" s="20" t="s">
         <v>326</v>
@@ -11324,11 +11324,11 @@
       <c r="L216" s="158"/>
       <c r="M216" s="26"/>
     </row>
-    <row r="217" spans="2:13" ht="78.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="178">
+    <row r="217" spans="2:13" ht="78.75" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="188">
         <v>10</v>
       </c>
-      <c r="C217" s="176"/>
+      <c r="C217" s="191"/>
       <c r="D217" s="11" t="s">
         <v>9</v>
       </c>
@@ -11360,9 +11360,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B218" s="179"/>
-      <c r="C218" s="177"/>
+    <row r="218" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B218" s="189"/>
+      <c r="C218" s="192"/>
       <c r="D218" s="111">
         <v>1</v>
       </c>
@@ -11391,13 +11391,13 @@
       </c>
       <c r="K218" s="113"/>
       <c r="L218" s="155"/>
-      <c r="M218" s="209">
+      <c r="M218" s="176">
         <f>IFERROR((180/($D$2*D218)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="219" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="180"/>
+    <row r="219" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="190"/>
       <c r="C219" s="16"/>
       <c r="D219" s="114">
         <v>1</v>
@@ -11433,9 +11433,9 @@
         <f t="shared" ref="L219" si="65">J218+J219</f>
         <v>25.500000000000004</v>
       </c>
-      <c r="M219" s="210"/>
-    </row>
-    <row r="220" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M219" s="177"/>
+    </row>
+    <row r="220" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B220" s="20"/>
       <c r="C220" s="20" t="s">
         <v>327</v>
@@ -11453,7 +11453,7 @@
       <c r="L220" s="157"/>
       <c r="M220" s="26"/>
     </row>
-    <row r="221" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B221" s="19"/>
       <c r="C221" s="20" t="s">
         <v>328</v>
@@ -11471,7 +11471,7 @@
       <c r="L221" s="103"/>
       <c r="M221" s="26"/>
     </row>
-    <row r="222" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B222" s="19"/>
       <c r="C222" s="20"/>
       <c r="D222" s="112"/>
@@ -11485,7 +11485,7 @@
       <c r="L222" s="103"/>
       <c r="M222" s="26"/>
     </row>
-    <row r="223" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B223" s="19"/>
       <c r="C223" s="20"/>
       <c r="D223" s="112"/>
@@ -11499,7 +11499,7 @@
       <c r="L223" s="103"/>
       <c r="M223" s="26"/>
     </row>
-    <row r="224" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B224" s="19"/>
       <c r="C224" s="20"/>
       <c r="D224" s="112"/>
@@ -11513,7 +11513,7 @@
       <c r="L224" s="103"/>
       <c r="M224" s="26"/>
     </row>
-    <row r="225" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B225" s="27"/>
       <c r="C225" s="20"/>
       <c r="D225" s="112"/>
@@ -11527,11 +11527,11 @@
       <c r="L225" s="158"/>
       <c r="M225" s="26"/>
     </row>
-    <row r="226" spans="2:13" ht="63" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="178">
+    <row r="226" spans="2:13" ht="63" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="188">
         <v>11</v>
       </c>
-      <c r="C226" s="176"/>
+      <c r="C226" s="191"/>
       <c r="D226" s="11" t="s">
         <v>9</v>
       </c>
@@ -11563,9 +11563,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="227" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B227" s="179"/>
-      <c r="C227" s="177"/>
+    <row r="227" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B227" s="189"/>
+      <c r="C227" s="192"/>
       <c r="D227" s="111">
         <v>1</v>
       </c>
@@ -11594,13 +11594,13 @@
       </c>
       <c r="K227" s="113"/>
       <c r="L227" s="155"/>
-      <c r="M227" s="209">
+      <c r="M227" s="176">
         <f>IFERROR((180/($D$2*D227)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="228" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="180"/>
+    <row r="228" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="190"/>
       <c r="C228" s="16"/>
       <c r="D228" s="114">
         <v>1</v>
@@ -11636,9 +11636,9 @@
         <f t="shared" ref="L228" si="72">J227+J228</f>
         <v>382.5</v>
       </c>
-      <c r="M228" s="210"/>
-    </row>
-    <row r="229" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M228" s="177"/>
+    </row>
+    <row r="229" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B229" s="20"/>
       <c r="C229" s="20" t="s">
         <v>329</v>
@@ -11656,7 +11656,7 @@
       <c r="L229" s="157"/>
       <c r="M229" s="26"/>
     </row>
-    <row r="230" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B230" s="19"/>
       <c r="C230" s="20" t="s">
         <v>330</v>
@@ -11674,7 +11674,7 @@
       <c r="L230" s="103"/>
       <c r="M230" s="26"/>
     </row>
-    <row r="231" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B231" s="19"/>
       <c r="C231" s="20" t="s">
         <v>331</v>
@@ -11692,7 +11692,7 @@
       <c r="L231" s="103"/>
       <c r="M231" s="26"/>
     </row>
-    <row r="232" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B232" s="19"/>
       <c r="C232" s="20" t="s">
         <v>332</v>
@@ -11710,7 +11710,7 @@
       <c r="L232" s="103"/>
       <c r="M232" s="26"/>
     </row>
-    <row r="233" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B233" s="19"/>
       <c r="C233" s="20" t="s">
         <v>333</v>
@@ -11728,7 +11728,7 @@
       <c r="L233" s="103"/>
       <c r="M233" s="26"/>
     </row>
-    <row r="234" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B234" s="27"/>
       <c r="C234" s="20" t="s">
         <v>334</v>
@@ -11746,11 +11746,11 @@
       <c r="L234" s="158"/>
       <c r="M234" s="26"/>
     </row>
-    <row r="235" spans="2:13" ht="83.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="178">
+    <row r="235" spans="2:13" ht="83.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="188">
         <v>12</v>
       </c>
-      <c r="C235" s="176"/>
+      <c r="C235" s="191"/>
       <c r="D235" s="11" t="s">
         <v>9</v>
       </c>
@@ -11782,9 +11782,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="236" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B236" s="179"/>
-      <c r="C236" s="177"/>
+    <row r="236" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B236" s="189"/>
+      <c r="C236" s="192"/>
       <c r="D236" s="111">
         <v>48</v>
       </c>
@@ -11813,13 +11813,13 @@
       </c>
       <c r="K236" s="113"/>
       <c r="L236" s="155"/>
-      <c r="M236" s="209">
+      <c r="M236" s="176">
         <f>IFERROR((180/($D$2*D236)),0)</f>
         <v>5.434782608695652E-2</v>
       </c>
     </row>
-    <row r="237" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="180"/>
+    <row r="237" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="190"/>
       <c r="C237" s="16"/>
       <c r="D237" s="114">
         <v>48</v>
@@ -11855,9 +11855,9 @@
         <f t="shared" ref="L237" si="79">J236+J237</f>
         <v>890.2800000000002</v>
       </c>
-      <c r="M237" s="210"/>
-    </row>
-    <row r="238" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M237" s="177"/>
+    </row>
+    <row r="238" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B238" s="20"/>
       <c r="C238" s="20" t="s">
         <v>335</v>
@@ -11875,7 +11875,7 @@
       <c r="L238" s="157"/>
       <c r="M238" s="26"/>
     </row>
-    <row r="239" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B239" s="19"/>
       <c r="C239" s="20" t="s">
         <v>336</v>
@@ -11893,7 +11893,7 @@
       <c r="L239" s="103"/>
       <c r="M239" s="26"/>
     </row>
-    <row r="240" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B240" s="19"/>
       <c r="C240" s="20"/>
       <c r="D240" s="112"/>
@@ -11907,7 +11907,7 @@
       <c r="L240" s="103"/>
       <c r="M240" s="26"/>
     </row>
-    <row r="241" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B241" s="19"/>
       <c r="C241" s="20"/>
       <c r="D241" s="112"/>
@@ -11921,7 +11921,7 @@
       <c r="L241" s="103"/>
       <c r="M241" s="26"/>
     </row>
-    <row r="242" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B242" s="19"/>
       <c r="C242" s="20"/>
       <c r="D242" s="112"/>
@@ -11935,7 +11935,7 @@
       <c r="L242" s="103"/>
       <c r="M242" s="26"/>
     </row>
-    <row r="243" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B243" s="27"/>
       <c r="C243" s="20"/>
       <c r="D243" s="112"/>
@@ -11949,11 +11949,11 @@
       <c r="L243" s="158"/>
       <c r="M243" s="26"/>
     </row>
-    <row r="244" spans="2:13" ht="67.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="178">
+    <row r="244" spans="2:13" ht="67.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="188">
         <v>13</v>
       </c>
-      <c r="C244" s="176"/>
+      <c r="C244" s="191"/>
       <c r="D244" s="11" t="s">
         <v>9</v>
       </c>
@@ -11985,9 +11985,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="245" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B245" s="179"/>
-      <c r="C245" s="177"/>
+    <row r="245" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B245" s="189"/>
+      <c r="C245" s="192"/>
       <c r="D245" s="111">
         <v>2</v>
       </c>
@@ -12016,13 +12016,13 @@
       </c>
       <c r="K245" s="113"/>
       <c r="L245" s="155"/>
-      <c r="M245" s="209">
+      <c r="M245" s="176">
         <f>IFERROR((180/($D$2*D245)),0)</f>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="246" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="180"/>
+    <row r="246" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="190"/>
       <c r="C246" s="16"/>
       <c r="D246" s="114">
         <v>2</v>
@@ -12058,9 +12058,9 @@
         <f t="shared" ref="L246" si="86">J245+J246</f>
         <v>625.10895000000005</v>
       </c>
-      <c r="M246" s="210"/>
-    </row>
-    <row r="247" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M246" s="177"/>
+    </row>
+    <row r="247" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B247" s="20"/>
       <c r="C247" s="20" t="s">
         <v>337</v>
@@ -12078,7 +12078,7 @@
       <c r="L247" s="157"/>
       <c r="M247" s="26"/>
     </row>
-    <row r="248" spans="2:13" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B248" s="20"/>
       <c r="C248" s="20" t="s">
         <v>338</v>
@@ -12096,7 +12096,7 @@
       <c r="L248" s="157"/>
       <c r="M248" s="26"/>
     </row>
-    <row r="249" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B249" s="19"/>
       <c r="C249" s="20" t="s">
         <v>339</v>
@@ -12114,7 +12114,7 @@
       <c r="L249" s="103"/>
       <c r="M249" s="26"/>
     </row>
-    <row r="250" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B250" s="19"/>
       <c r="C250" s="20" t="s">
         <v>340</v>
@@ -12132,7 +12132,7 @@
       <c r="L250" s="103"/>
       <c r="M250" s="26"/>
     </row>
-    <row r="251" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B251" s="19"/>
       <c r="C251" s="20" t="s">
         <v>341</v>
@@ -12150,7 +12150,7 @@
       <c r="L251" s="103"/>
       <c r="M251" s="26"/>
     </row>
-    <row r="252" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B252" s="19"/>
       <c r="C252" s="20" t="s">
         <v>342</v>
@@ -12168,7 +12168,7 @@
       <c r="L252" s="103"/>
       <c r="M252" s="26"/>
     </row>
-    <row r="253" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B253" s="27"/>
       <c r="C253" s="20" t="s">
         <v>343</v>
@@ -12186,11 +12186,11 @@
       <c r="L253" s="158"/>
       <c r="M253" s="26"/>
     </row>
-    <row r="254" spans="2:13" ht="68.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="178">
+    <row r="254" spans="2:13" ht="68.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="188">
         <v>14</v>
       </c>
-      <c r="C254" s="176"/>
+      <c r="C254" s="191"/>
       <c r="D254" s="11" t="s">
         <v>9</v>
       </c>
@@ -12222,9 +12222,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="255" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B255" s="179"/>
-      <c r="C255" s="177"/>
+    <row r="255" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B255" s="189"/>
+      <c r="C255" s="192"/>
       <c r="D255" s="111">
         <v>2</v>
       </c>
@@ -12254,13 +12254,13 @@
       </c>
       <c r="K255" s="113"/>
       <c r="L255" s="155"/>
-      <c r="M255" s="209">
+      <c r="M255" s="176">
         <f>IFERROR((180/($D$2*D255)),0)</f>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="256" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="180"/>
+    <row r="256" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="190"/>
       <c r="C256" s="16"/>
       <c r="D256" s="114">
         <v>2</v>
@@ -12296,9 +12296,9 @@
         <f t="shared" ref="L256" si="93">J255+J256</f>
         <v>66.305400000000006</v>
       </c>
-      <c r="M256" s="210"/>
-    </row>
-    <row r="257" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M256" s="177"/>
+    </row>
+    <row r="257" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B257" s="20"/>
       <c r="C257" s="20" t="s">
         <v>336</v>
@@ -12316,7 +12316,7 @@
       <c r="L257" s="157"/>
       <c r="M257" s="26"/>
     </row>
-    <row r="258" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B258" s="19"/>
       <c r="C258" s="20" t="s">
         <v>335</v>
@@ -12334,7 +12334,7 @@
       <c r="L258" s="103"/>
       <c r="M258" s="26"/>
     </row>
-    <row r="259" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B259" s="19"/>
       <c r="C259" s="20"/>
       <c r="D259" s="112"/>
@@ -12348,7 +12348,7 @@
       <c r="L259" s="103"/>
       <c r="M259" s="26"/>
     </row>
-    <row r="260" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B260" s="19"/>
       <c r="C260" s="20"/>
       <c r="D260" s="112"/>
@@ -12362,7 +12362,7 @@
       <c r="L260" s="103"/>
       <c r="M260" s="26"/>
     </row>
-    <row r="261" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B261" s="19"/>
       <c r="C261" s="20"/>
       <c r="D261" s="112"/>
@@ -12376,7 +12376,7 @@
       <c r="L261" s="103"/>
       <c r="M261" s="26"/>
     </row>
-    <row r="262" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B262" s="27"/>
       <c r="C262" s="20"/>
       <c r="D262" s="112"/>
@@ -12390,11 +12390,11 @@
       <c r="L262" s="158"/>
       <c r="M262" s="26"/>
     </row>
-    <row r="263" spans="2:13" ht="75" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="178">
+    <row r="263" spans="2:13" ht="75" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="188">
         <v>15</v>
       </c>
-      <c r="C263" s="176"/>
+      <c r="C263" s="191"/>
       <c r="D263" s="11" t="s">
         <v>9</v>
       </c>
@@ -12426,9 +12426,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B264" s="179"/>
-      <c r="C264" s="177"/>
+    <row r="264" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B264" s="189"/>
+      <c r="C264" s="192"/>
       <c r="D264" s="111">
         <v>2</v>
       </c>
@@ -12457,13 +12457,13 @@
       </c>
       <c r="K264" s="113"/>
       <c r="L264" s="155"/>
-      <c r="M264" s="209">
+      <c r="M264" s="176">
         <f>IFERROR((180/($D$2*D264)),0)</f>
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="180"/>
+    <row r="265" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="190"/>
       <c r="C265" s="16"/>
       <c r="D265" s="114">
         <v>2</v>
@@ -12499,9 +12499,9 @@
         <f t="shared" ref="L265" si="100">J264+J265</f>
         <v>133.10085000000001</v>
       </c>
-      <c r="M265" s="210"/>
-    </row>
-    <row r="266" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M265" s="177"/>
+    </row>
+    <row r="266" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B266" s="20"/>
       <c r="C266" s="20" t="s">
         <v>344</v>
@@ -12519,7 +12519,7 @@
       <c r="L266" s="157"/>
       <c r="M266" s="26"/>
     </row>
-    <row r="267" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B267" s="19"/>
       <c r="C267" s="20" t="s">
         <v>345</v>
@@ -12537,7 +12537,7 @@
       <c r="L267" s="103"/>
       <c r="M267" s="26"/>
     </row>
-    <row r="268" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B268" s="19"/>
       <c r="C268" s="20" t="s">
         <v>346</v>
@@ -12555,7 +12555,7 @@
       <c r="L268" s="103"/>
       <c r="M268" s="26"/>
     </row>
-    <row r="269" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B269" s="19"/>
       <c r="C269" s="20"/>
       <c r="D269" s="112"/>
@@ -12569,7 +12569,7 @@
       <c r="L269" s="103"/>
       <c r="M269" s="26"/>
     </row>
-    <row r="270" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B270" s="19"/>
       <c r="C270" s="20"/>
       <c r="D270" s="112"/>
@@ -12583,7 +12583,7 @@
       <c r="L270" s="103"/>
       <c r="M270" s="26"/>
     </row>
-    <row r="271" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B271" s="27"/>
       <c r="C271" s="20"/>
       <c r="D271" s="112"/>
@@ -12597,11 +12597,11 @@
       <c r="L271" s="158"/>
       <c r="M271" s="26"/>
     </row>
-    <row r="272" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="178">
+    <row r="272" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="188">
         <v>16</v>
       </c>
-      <c r="C272" s="176"/>
+      <c r="C272" s="191"/>
       <c r="D272" s="11" t="s">
         <v>9</v>
       </c>
@@ -12633,9 +12633,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="273" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B273" s="179"/>
-      <c r="C273" s="177"/>
+    <row r="273" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B273" s="189"/>
+      <c r="C273" s="192"/>
       <c r="D273" s="111">
         <v>1</v>
       </c>
@@ -12664,13 +12664,13 @@
       </c>
       <c r="K273" s="113"/>
       <c r="L273" s="155"/>
-      <c r="M273" s="209">
+      <c r="M273" s="176">
         <f>IFERROR((180/($D$2*D273)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="274" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="180"/>
+    <row r="274" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="190"/>
       <c r="C274" s="16"/>
       <c r="D274" s="114">
         <v>1</v>
@@ -12706,9 +12706,9 @@
         <f t="shared" ref="L274" si="107">J273+J274</f>
         <v>711.61365000000001</v>
       </c>
-      <c r="M274" s="210"/>
-    </row>
-    <row r="275" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M274" s="177"/>
+    </row>
+    <row r="275" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B275" s="20"/>
       <c r="C275" s="20" t="s">
         <v>347</v>
@@ -12726,7 +12726,7 @@
       <c r="L275" s="157"/>
       <c r="M275" s="26"/>
     </row>
-    <row r="276" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B276" s="20"/>
       <c r="C276" s="20" t="s">
         <v>321</v>
@@ -12744,7 +12744,7 @@
       <c r="L276" s="157"/>
       <c r="M276" s="26"/>
     </row>
-    <row r="277" spans="2:13" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B277" s="20"/>
       <c r="C277" s="20" t="s">
         <v>319</v>
@@ -12762,7 +12762,7 @@
       <c r="L277" s="157"/>
       <c r="M277" s="26"/>
     </row>
-    <row r="278" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B278" s="19"/>
       <c r="C278" s="20" t="s">
         <v>324</v>
@@ -12780,7 +12780,7 @@
       <c r="L278" s="103"/>
       <c r="M278" s="26"/>
     </row>
-    <row r="279" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B279" s="19"/>
       <c r="C279" s="20" t="s">
         <v>325</v>
@@ -12798,7 +12798,7 @@
       <c r="L279" s="103"/>
       <c r="M279" s="26"/>
     </row>
-    <row r="280" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B280" s="19"/>
       <c r="C280" s="20" t="s">
         <v>320</v>
@@ -12816,7 +12816,7 @@
       <c r="L280" s="103"/>
       <c r="M280" s="26"/>
     </row>
-    <row r="281" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B281" s="19"/>
       <c r="C281" s="20" t="s">
         <v>326</v>
@@ -12834,7 +12834,7 @@
       <c r="L281" s="103"/>
       <c r="M281" s="26"/>
     </row>
-    <row r="282" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B282" s="27"/>
       <c r="C282" s="20" t="s">
         <v>323</v>
@@ -12852,11 +12852,11 @@
       <c r="L282" s="158"/>
       <c r="M282" s="26"/>
     </row>
-    <row r="283" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="178">
+    <row r="283" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="188">
         <v>17</v>
       </c>
-      <c r="C283" s="176"/>
+      <c r="C283" s="191"/>
       <c r="D283" s="11" t="s">
         <v>9</v>
       </c>
@@ -12888,9 +12888,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="284" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B284" s="179"/>
-      <c r="C284" s="177"/>
+    <row r="284" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B284" s="189"/>
+      <c r="C284" s="192"/>
       <c r="D284" s="111">
         <v>1</v>
       </c>
@@ -12919,13 +12919,13 @@
       </c>
       <c r="K284" s="113"/>
       <c r="L284" s="155"/>
-      <c r="M284" s="209">
+      <c r="M284" s="176">
         <f>IFERROR((180/($D$2*D284)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="285" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="180"/>
+    <row r="285" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="190"/>
       <c r="C285" s="16"/>
       <c r="D285" s="114">
         <v>1</v>
@@ -12961,9 +12961,9 @@
         <f t="shared" ref="L285" si="114">J284+J285</f>
         <v>25.500000000000004</v>
       </c>
-      <c r="M285" s="210"/>
-    </row>
-    <row r="286" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M285" s="177"/>
+    </row>
+    <row r="286" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B286" s="20"/>
       <c r="C286" s="20" t="s">
         <v>348</v>
@@ -12981,7 +12981,7 @@
       <c r="L286" s="157"/>
       <c r="M286" s="26"/>
     </row>
-    <row r="287" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B287" s="19"/>
       <c r="C287" s="20" t="s">
         <v>328</v>
@@ -12999,7 +12999,7 @@
       <c r="L287" s="103"/>
       <c r="M287" s="26"/>
     </row>
-    <row r="288" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B288" s="19"/>
       <c r="C288" s="20"/>
       <c r="D288" s="112"/>
@@ -13013,7 +13013,7 @@
       <c r="L288" s="103"/>
       <c r="M288" s="26"/>
     </row>
-    <row r="289" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B289" s="19"/>
       <c r="C289" s="20"/>
       <c r="D289" s="112"/>
@@ -13027,7 +13027,7 @@
       <c r="L289" s="103"/>
       <c r="M289" s="26"/>
     </row>
-    <row r="290" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B290" s="19"/>
       <c r="C290" s="20"/>
       <c r="D290" s="112"/>
@@ -13041,7 +13041,7 @@
       <c r="L290" s="103"/>
       <c r="M290" s="26"/>
     </row>
-    <row r="291" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B291" s="27"/>
       <c r="C291" s="20"/>
       <c r="D291" s="112"/>
@@ -13055,11 +13055,11 @@
       <c r="L291" s="158"/>
       <c r="M291" s="26"/>
     </row>
-    <row r="292" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="178">
+    <row r="292" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="188">
         <v>18</v>
       </c>
-      <c r="C292" s="176"/>
+      <c r="C292" s="191"/>
       <c r="D292" s="11" t="s">
         <v>9</v>
       </c>
@@ -13091,9 +13091,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="293" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B293" s="179"/>
-      <c r="C293" s="177"/>
+    <row r="293" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B293" s="189"/>
+      <c r="C293" s="192"/>
       <c r="D293" s="111">
         <v>1</v>
       </c>
@@ -13122,13 +13122,13 @@
       </c>
       <c r="K293" s="113"/>
       <c r="L293" s="155"/>
-      <c r="M293" s="209">
+      <c r="M293" s="176">
         <f>IFERROR((180/($D$2*D293)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="294" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="180"/>
+    <row r="294" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="190"/>
       <c r="C294" s="16"/>
       <c r="D294" s="114">
         <v>1</v>
@@ -13164,9 +13164,9 @@
         <f t="shared" ref="L294" si="121">J293+J294</f>
         <v>369.75000000000006</v>
       </c>
-      <c r="M294" s="210"/>
-    </row>
-    <row r="295" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M294" s="177"/>
+    </row>
+    <row r="295" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B295" s="20"/>
       <c r="C295" s="20" t="s">
         <v>331</v>
@@ -13184,7 +13184,7 @@
       <c r="L295" s="157"/>
       <c r="M295" s="26"/>
     </row>
-    <row r="296" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B296" s="19"/>
       <c r="C296" s="20" t="s">
         <v>329</v>
@@ -13202,7 +13202,7 @@
       <c r="L296" s="103"/>
       <c r="M296" s="26"/>
     </row>
-    <row r="297" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B297" s="19"/>
       <c r="C297" s="20" t="s">
         <v>330</v>
@@ -13220,7 +13220,7 @@
       <c r="L297" s="103"/>
       <c r="M297" s="26"/>
     </row>
-    <row r="298" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B298" s="19"/>
       <c r="C298" s="20" t="s">
         <v>333</v>
@@ -13238,7 +13238,7 @@
       <c r="L298" s="103"/>
       <c r="M298" s="26"/>
     </row>
-    <row r="299" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B299" s="19"/>
       <c r="C299" s="20" t="s">
         <v>334</v>
@@ -13256,7 +13256,7 @@
       <c r="L299" s="103"/>
       <c r="M299" s="26"/>
     </row>
-    <row r="300" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B300" s="27"/>
       <c r="C300" s="20"/>
       <c r="D300" s="112"/>
@@ -13270,11 +13270,11 @@
       <c r="L300" s="158"/>
       <c r="M300" s="26"/>
     </row>
-    <row r="301" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="178">
+    <row r="301" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="188">
         <v>19</v>
       </c>
-      <c r="C301" s="176"/>
+      <c r="C301" s="191"/>
       <c r="D301" s="11" t="s">
         <v>9</v>
       </c>
@@ -13306,9 +13306,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="302" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B302" s="179"/>
-      <c r="C302" s="177"/>
+    <row r="302" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B302" s="189"/>
+      <c r="C302" s="192"/>
       <c r="D302" s="111">
         <v>1</v>
       </c>
@@ -13337,13 +13337,13 @@
       </c>
       <c r="K302" s="113"/>
       <c r="L302" s="155"/>
-      <c r="M302" s="209">
+      <c r="M302" s="176">
         <f>IFERROR((180/($D$2*D302)),0)</f>
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="303" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="180"/>
+    <row r="303" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="190"/>
       <c r="C303" s="16"/>
       <c r="D303" s="114">
         <v>1</v>
@@ -13379,9 +13379,9 @@
         <f t="shared" ref="L303" si="128">J302+J303</f>
         <v>879.75</v>
       </c>
-      <c r="M303" s="210"/>
-    </row>
-    <row r="304" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M303" s="177"/>
+    </row>
+    <row r="304" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B304" s="20"/>
       <c r="C304" s="20" t="s">
         <v>349</v>
@@ -13399,7 +13399,7 @@
       <c r="L304" s="157"/>
       <c r="M304" s="26"/>
     </row>
-    <row r="305" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B305" s="20"/>
       <c r="C305" s="20" t="s">
         <v>332</v>
@@ -13417,7 +13417,7 @@
       <c r="L305" s="157"/>
       <c r="M305" s="26"/>
     </row>
-    <row r="306" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B306" s="20"/>
       <c r="C306" s="20" t="s">
         <v>350</v>
@@ -13435,7 +13435,7 @@
       <c r="L306" s="157"/>
       <c r="M306" s="26"/>
     </row>
-    <row r="307" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B307" s="20"/>
       <c r="C307" s="20" t="s">
         <v>351</v>
@@ -13453,7 +13453,7 @@
       <c r="L307" s="157"/>
       <c r="M307" s="26"/>
     </row>
-    <row r="308" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B308" s="20"/>
       <c r="C308" s="20" t="s">
         <v>352</v>
@@ -13471,7 +13471,7 @@
       <c r="L308" s="157"/>
       <c r="M308" s="26"/>
     </row>
-    <row r="309" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B309" s="20"/>
       <c r="C309" s="20" t="s">
         <v>353</v>
@@ -13489,7 +13489,7 @@
       <c r="L309" s="157"/>
       <c r="M309" s="26"/>
     </row>
-    <row r="310" spans="2:13" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B310" s="20"/>
       <c r="C310" s="20" t="s">
         <v>354</v>
@@ -13507,7 +13507,7 @@
       <c r="L310" s="157"/>
       <c r="M310" s="26"/>
     </row>
-    <row r="311" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B311" s="19"/>
       <c r="C311" s="20" t="s">
         <v>355</v>
@@ -13525,7 +13525,7 @@
       <c r="L311" s="103"/>
       <c r="M311" s="26"/>
     </row>
-    <row r="312" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B312" s="19"/>
       <c r="C312" s="20" t="s">
         <v>356</v>
@@ -13543,7 +13543,7 @@
       <c r="L312" s="103"/>
       <c r="M312" s="26"/>
     </row>
-    <row r="313" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B313" s="19"/>
       <c r="C313" s="20" t="s">
         <v>357</v>
@@ -13561,7 +13561,7 @@
       <c r="L313" s="103"/>
       <c r="M313" s="26"/>
     </row>
-    <row r="314" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B314" s="19"/>
       <c r="C314" s="20" t="s">
         <v>358</v>
@@ -13579,7 +13579,7 @@
       <c r="L314" s="103"/>
       <c r="M314" s="26"/>
     </row>
-    <row r="315" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B315" s="27"/>
       <c r="C315" s="20" t="s">
         <v>359</v>
@@ -13597,11 +13597,11 @@
       <c r="L315" s="158"/>
       <c r="M315" s="26"/>
     </row>
-    <row r="316" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="178">
+    <row r="316" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="188">
         <v>20</v>
       </c>
-      <c r="C316" s="176"/>
+      <c r="C316" s="191"/>
       <c r="D316" s="11" t="s">
         <v>9</v>
       </c>
@@ -13633,9 +13633,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="317" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B317" s="179"/>
-      <c r="C317" s="177"/>
+    <row r="317" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B317" s="189"/>
+      <c r="C317" s="192"/>
       <c r="D317" s="111">
         <v>0</v>
       </c>
@@ -13664,13 +13664,13 @@
       </c>
       <c r="K317" s="113"/>
       <c r="L317" s="155"/>
-      <c r="M317" s="209">
+      <c r="M317" s="176">
         <f>IFERROR((180/($D$2*D317)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="180"/>
+    <row r="318" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="190"/>
       <c r="C318" s="16"/>
       <c r="D318" s="114">
         <v>0</v>
@@ -13704,9 +13704,9 @@
         <f t="shared" ref="L318" si="135">J317+J318</f>
         <v>0</v>
       </c>
-      <c r="M318" s="210"/>
-    </row>
-    <row r="319" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M318" s="177"/>
+    </row>
+    <row r="319" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
       <c r="D319" s="112"/>
@@ -13720,7 +13720,7 @@
       <c r="L319" s="157"/>
       <c r="M319" s="26"/>
     </row>
-    <row r="320" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B320" s="19"/>
       <c r="C320" s="20"/>
       <c r="D320" s="112"/>
@@ -13734,7 +13734,7 @@
       <c r="L320" s="103"/>
       <c r="M320" s="26"/>
     </row>
-    <row r="321" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B321" s="19"/>
       <c r="C321" s="20"/>
       <c r="D321" s="112"/>
@@ -13748,7 +13748,7 @@
       <c r="L321" s="103"/>
       <c r="M321" s="26"/>
     </row>
-    <row r="322" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B322" s="19"/>
       <c r="C322" s="20"/>
       <c r="D322" s="112"/>
@@ -13762,7 +13762,7 @@
       <c r="L322" s="103"/>
       <c r="M322" s="26"/>
     </row>
-    <row r="323" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B323" s="19"/>
       <c r="C323" s="20"/>
       <c r="D323" s="112"/>
@@ -13776,7 +13776,7 @@
       <c r="L323" s="103"/>
       <c r="M323" s="26"/>
     </row>
-    <row r="324" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B324" s="27"/>
       <c r="C324" s="20"/>
       <c r="D324" s="112"/>
@@ -13790,11 +13790,11 @@
       <c r="L324" s="158"/>
       <c r="M324" s="26"/>
     </row>
-    <row r="325" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="178">
+    <row r="325" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="188">
         <v>21</v>
       </c>
-      <c r="C325" s="176"/>
+      <c r="C325" s="191"/>
       <c r="D325" s="11" t="s">
         <v>9</v>
       </c>
@@ -13826,9 +13826,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="326" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B326" s="179"/>
-      <c r="C326" s="177"/>
+    <row r="326" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B326" s="189"/>
+      <c r="C326" s="192"/>
       <c r="D326" s="111">
         <v>0</v>
       </c>
@@ -13857,13 +13857,13 @@
       </c>
       <c r="K326" s="113"/>
       <c r="L326" s="155"/>
-      <c r="M326" s="209">
+      <c r="M326" s="176">
         <f>IFERROR((180/($D$2*D326)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="180"/>
+    <row r="327" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="190"/>
       <c r="C327" s="16"/>
       <c r="D327" s="114">
         <v>0</v>
@@ -13897,9 +13897,9 @@
         <f t="shared" ref="L327" si="142">J326+J327</f>
         <v>0</v>
       </c>
-      <c r="M327" s="210"/>
-    </row>
-    <row r="328" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M327" s="177"/>
+    </row>
+    <row r="328" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B328" s="20"/>
       <c r="C328" s="20"/>
       <c r="D328" s="112"/>
@@ -13913,7 +13913,7 @@
       <c r="L328" s="157"/>
       <c r="M328" s="26"/>
     </row>
-    <row r="329" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B329" s="19"/>
       <c r="C329" s="20"/>
       <c r="D329" s="112"/>
@@ -13927,7 +13927,7 @@
       <c r="L329" s="103"/>
       <c r="M329" s="26"/>
     </row>
-    <row r="330" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B330" s="19"/>
       <c r="C330" s="20"/>
       <c r="D330" s="112"/>
@@ -13941,7 +13941,7 @@
       <c r="L330" s="103"/>
       <c r="M330" s="26"/>
     </row>
-    <row r="331" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B331" s="19"/>
       <c r="C331" s="20"/>
       <c r="D331" s="112"/>
@@ -13955,7 +13955,7 @@
       <c r="L331" s="103"/>
       <c r="M331" s="26"/>
     </row>
-    <row r="332" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B332" s="19"/>
       <c r="C332" s="20"/>
       <c r="D332" s="112"/>
@@ -13969,7 +13969,7 @@
       <c r="L332" s="103"/>
       <c r="M332" s="26"/>
     </row>
-    <row r="333" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B333" s="27"/>
       <c r="C333" s="20"/>
       <c r="D333" s="112"/>
@@ -13983,11 +13983,11 @@
       <c r="L333" s="158"/>
       <c r="M333" s="26"/>
     </row>
-    <row r="334" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="178">
+    <row r="334" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B334" s="188">
         <v>22</v>
       </c>
-      <c r="C334" s="176"/>
+      <c r="C334" s="191"/>
       <c r="D334" s="11" t="s">
         <v>9</v>
       </c>
@@ -14019,9 +14019,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="335" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B335" s="179"/>
-      <c r="C335" s="177"/>
+    <row r="335" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B335" s="189"/>
+      <c r="C335" s="192"/>
       <c r="D335" s="111">
         <v>0</v>
       </c>
@@ -14050,13 +14050,13 @@
       </c>
       <c r="K335" s="113"/>
       <c r="L335" s="155"/>
-      <c r="M335" s="209">
+      <c r="M335" s="176">
         <f>IFERROR((180/($D$2*D335)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B336" s="180"/>
+    <row r="336" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="190"/>
       <c r="C336" s="16"/>
       <c r="D336" s="114">
         <v>0</v>
@@ -14090,9 +14090,9 @@
         <f t="shared" ref="L336" si="149">J335+J336</f>
         <v>0</v>
       </c>
-      <c r="M336" s="210"/>
-    </row>
-    <row r="337" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M336" s="177"/>
+    </row>
+    <row r="337" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B337" s="20"/>
       <c r="C337" s="20"/>
       <c r="D337" s="112"/>
@@ -14106,7 +14106,7 @@
       <c r="L337" s="157"/>
       <c r="M337" s="26"/>
     </row>
-    <row r="338" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B338" s="19"/>
       <c r="C338" s="20"/>
       <c r="D338" s="112"/>
@@ -14120,7 +14120,7 @@
       <c r="L338" s="103"/>
       <c r="M338" s="26"/>
     </row>
-    <row r="339" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B339" s="19"/>
       <c r="C339" s="20"/>
       <c r="D339" s="112"/>
@@ -14134,7 +14134,7 @@
       <c r="L339" s="103"/>
       <c r="M339" s="26"/>
     </row>
-    <row r="340" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B340" s="19"/>
       <c r="C340" s="20"/>
       <c r="D340" s="112"/>
@@ -14148,7 +14148,7 @@
       <c r="L340" s="103"/>
       <c r="M340" s="26"/>
     </row>
-    <row r="341" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B341" s="19"/>
       <c r="C341" s="20"/>
       <c r="D341" s="112"/>
@@ -14162,7 +14162,7 @@
       <c r="L341" s="103"/>
       <c r="M341" s="26"/>
     </row>
-    <row r="342" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B342" s="27"/>
       <c r="C342" s="20"/>
       <c r="D342" s="112"/>
@@ -14176,11 +14176,11 @@
       <c r="L342" s="158"/>
       <c r="M342" s="26"/>
     </row>
-    <row r="343" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="178">
+    <row r="343" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B343" s="188">
         <v>23</v>
       </c>
-      <c r="C343" s="176"/>
+      <c r="C343" s="191"/>
       <c r="D343" s="11" t="s">
         <v>9</v>
       </c>
@@ -14212,9 +14212,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="344" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B344" s="179"/>
-      <c r="C344" s="177"/>
+    <row r="344" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B344" s="189"/>
+      <c r="C344" s="192"/>
       <c r="D344" s="111">
         <v>0</v>
       </c>
@@ -14243,13 +14243,13 @@
       </c>
       <c r="K344" s="113"/>
       <c r="L344" s="155"/>
-      <c r="M344" s="209">
+      <c r="M344" s="176">
         <f>IFERROR((180/($D$2*D344)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="180"/>
+    <row r="345" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="190"/>
       <c r="C345" s="16"/>
       <c r="D345" s="114">
         <v>0</v>
@@ -14283,9 +14283,9 @@
         <f t="shared" ref="L345" si="156">J344+J345</f>
         <v>0</v>
       </c>
-      <c r="M345" s="210"/>
-    </row>
-    <row r="346" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M345" s="177"/>
+    </row>
+    <row r="346" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B346" s="20"/>
       <c r="C346" s="20"/>
       <c r="D346" s="112"/>
@@ -14299,7 +14299,7 @@
       <c r="L346" s="157"/>
       <c r="M346" s="26"/>
     </row>
-    <row r="347" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B347" s="19"/>
       <c r="C347" s="20"/>
       <c r="D347" s="112"/>
@@ -14313,7 +14313,7 @@
       <c r="L347" s="103"/>
       <c r="M347" s="26"/>
     </row>
-    <row r="348" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B348" s="19"/>
       <c r="C348" s="20"/>
       <c r="D348" s="112"/>
@@ -14327,7 +14327,7 @@
       <c r="L348" s="103"/>
       <c r="M348" s="26"/>
     </row>
-    <row r="349" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B349" s="19"/>
       <c r="C349" s="20"/>
       <c r="D349" s="112"/>
@@ -14341,7 +14341,7 @@
       <c r="L349" s="103"/>
       <c r="M349" s="26"/>
     </row>
-    <row r="350" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B350" s="19"/>
       <c r="C350" s="20"/>
       <c r="D350" s="112"/>
@@ -14355,7 +14355,7 @@
       <c r="L350" s="103"/>
       <c r="M350" s="26"/>
     </row>
-    <row r="351" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B351" s="27"/>
       <c r="C351" s="20"/>
       <c r="D351" s="112"/>
@@ -14369,11 +14369,11 @@
       <c r="L351" s="158"/>
       <c r="M351" s="26"/>
     </row>
-    <row r="352" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="178">
+    <row r="352" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="188">
         <v>24</v>
       </c>
-      <c r="C352" s="176"/>
+      <c r="C352" s="191"/>
       <c r="D352" s="11" t="s">
         <v>9</v>
       </c>
@@ -14405,9 +14405,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="353" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B353" s="179"/>
-      <c r="C353" s="177"/>
+    <row r="353" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B353" s="189"/>
+      <c r="C353" s="192"/>
       <c r="D353" s="111">
         <v>0</v>
       </c>
@@ -14436,13 +14436,13 @@
       </c>
       <c r="K353" s="113"/>
       <c r="L353" s="155"/>
-      <c r="M353" s="209">
+      <c r="M353" s="176">
         <f>IFERROR((180/($D$2*D353)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="180"/>
+    <row r="354" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="190"/>
       <c r="C354" s="16"/>
       <c r="D354" s="114">
         <v>0</v>
@@ -14476,9 +14476,9 @@
         <f t="shared" ref="L354" si="163">J353+J354</f>
         <v>0</v>
       </c>
-      <c r="M354" s="210"/>
-    </row>
-    <row r="355" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M354" s="177"/>
+    </row>
+    <row r="355" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B355" s="20"/>
       <c r="C355" s="20"/>
       <c r="D355" s="112"/>
@@ -14492,7 +14492,7 @@
       <c r="L355" s="157"/>
       <c r="M355" s="26"/>
     </row>
-    <row r="356" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B356" s="19"/>
       <c r="C356" s="20"/>
       <c r="D356" s="112"/>
@@ -14506,7 +14506,7 @@
       <c r="L356" s="103"/>
       <c r="M356" s="26"/>
     </row>
-    <row r="357" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B357" s="19"/>
       <c r="C357" s="20"/>
       <c r="D357" s="112"/>
@@ -14520,7 +14520,7 @@
       <c r="L357" s="103"/>
       <c r="M357" s="26"/>
     </row>
-    <row r="358" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B358" s="19"/>
       <c r="C358" s="20"/>
       <c r="D358" s="112"/>
@@ -14534,7 +14534,7 @@
       <c r="L358" s="103"/>
       <c r="M358" s="26"/>
     </row>
-    <row r="359" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B359" s="19"/>
       <c r="C359" s="20"/>
       <c r="D359" s="112"/>
@@ -14548,7 +14548,7 @@
       <c r="L359" s="103"/>
       <c r="M359" s="26"/>
     </row>
-    <row r="360" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B360" s="27"/>
       <c r="C360" s="20"/>
       <c r="D360" s="112"/>
@@ -14562,11 +14562,11 @@
       <c r="L360" s="158"/>
       <c r="M360" s="26"/>
     </row>
-    <row r="361" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="178">
+    <row r="361" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="188">
         <v>25</v>
       </c>
-      <c r="C361" s="176"/>
+      <c r="C361" s="191"/>
       <c r="D361" s="11" t="s">
         <v>9</v>
       </c>
@@ -14598,9 +14598,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="362" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B362" s="179"/>
-      <c r="C362" s="177"/>
+    <row r="362" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B362" s="189"/>
+      <c r="C362" s="192"/>
       <c r="D362" s="111">
         <v>0</v>
       </c>
@@ -14629,13 +14629,13 @@
       </c>
       <c r="K362" s="113"/>
       <c r="L362" s="155"/>
-      <c r="M362" s="209">
+      <c r="M362" s="176">
         <f>IFERROR((180/($D$2*D362)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="180"/>
+    <row r="363" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="190"/>
       <c r="C363" s="16"/>
       <c r="D363" s="114">
         <v>0</v>
@@ -14669,9 +14669,9 @@
         <f t="shared" ref="L363" si="170">J362+J363</f>
         <v>0</v>
       </c>
-      <c r="M363" s="210"/>
-    </row>
-    <row r="364" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M363" s="177"/>
+    </row>
+    <row r="364" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B364" s="20"/>
       <c r="C364" s="20"/>
       <c r="D364" s="112"/>
@@ -14685,7 +14685,7 @@
       <c r="L364" s="157"/>
       <c r="M364" s="26"/>
     </row>
-    <row r="365" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B365" s="19"/>
       <c r="C365" s="20"/>
       <c r="D365" s="112"/>
@@ -14699,7 +14699,7 @@
       <c r="L365" s="103"/>
       <c r="M365" s="26"/>
     </row>
-    <row r="366" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B366" s="19"/>
       <c r="C366" s="20"/>
       <c r="D366" s="112"/>
@@ -14713,7 +14713,7 @@
       <c r="L366" s="103"/>
       <c r="M366" s="26"/>
     </row>
-    <row r="367" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B367" s="19"/>
       <c r="C367" s="20"/>
       <c r="D367" s="112"/>
@@ -14727,7 +14727,7 @@
       <c r="L367" s="103"/>
       <c r="M367" s="26"/>
     </row>
-    <row r="368" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B368" s="19"/>
       <c r="C368" s="20"/>
       <c r="D368" s="112"/>
@@ -14741,7 +14741,7 @@
       <c r="L368" s="103"/>
       <c r="M368" s="26"/>
     </row>
-    <row r="369" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B369" s="27"/>
       <c r="C369" s="20"/>
       <c r="D369" s="112"/>
@@ -14755,11 +14755,11 @@
       <c r="L369" s="158"/>
       <c r="M369" s="26"/>
     </row>
-    <row r="370" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="178">
+    <row r="370" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="188">
         <v>26</v>
       </c>
-      <c r="C370" s="176"/>
+      <c r="C370" s="191"/>
       <c r="D370" s="11" t="s">
         <v>9</v>
       </c>
@@ -14791,9 +14791,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="371" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B371" s="179"/>
-      <c r="C371" s="177"/>
+    <row r="371" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B371" s="189"/>
+      <c r="C371" s="192"/>
       <c r="D371" s="111">
         <v>0</v>
       </c>
@@ -14822,13 +14822,13 @@
       </c>
       <c r="K371" s="113"/>
       <c r="L371" s="155"/>
-      <c r="M371" s="209">
+      <c r="M371" s="176">
         <f>IFERROR((180/($D$2*D371)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="180"/>
+    <row r="372" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="190"/>
       <c r="C372" s="16"/>
       <c r="D372" s="114">
         <v>0</v>
@@ -14862,9 +14862,9 @@
         <f t="shared" ref="L372" si="177">J371+J372</f>
         <v>0</v>
       </c>
-      <c r="M372" s="210"/>
-    </row>
-    <row r="373" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M372" s="177"/>
+    </row>
+    <row r="373" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B373" s="20"/>
       <c r="C373" s="20"/>
       <c r="D373" s="112"/>
@@ -14878,7 +14878,7 @@
       <c r="L373" s="157"/>
       <c r="M373" s="26"/>
     </row>
-    <row r="374" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B374" s="19"/>
       <c r="C374" s="20"/>
       <c r="D374" s="112"/>
@@ -14892,7 +14892,7 @@
       <c r="L374" s="103"/>
       <c r="M374" s="26"/>
     </row>
-    <row r="375" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B375" s="19"/>
       <c r="C375" s="20"/>
       <c r="D375" s="112"/>
@@ -14906,7 +14906,7 @@
       <c r="L375" s="103"/>
       <c r="M375" s="26"/>
     </row>
-    <row r="376" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B376" s="19"/>
       <c r="C376" s="20"/>
       <c r="D376" s="112"/>
@@ -14920,7 +14920,7 @@
       <c r="L376" s="103"/>
       <c r="M376" s="26"/>
     </row>
-    <row r="377" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B377" s="19"/>
       <c r="C377" s="20"/>
       <c r="D377" s="112"/>
@@ -14934,7 +14934,7 @@
       <c r="L377" s="103"/>
       <c r="M377" s="26"/>
     </row>
-    <row r="378" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B378" s="27"/>
       <c r="C378" s="20"/>
       <c r="D378" s="112"/>
@@ -14948,11 +14948,11 @@
       <c r="L378" s="158"/>
       <c r="M378" s="26"/>
     </row>
-    <row r="379" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="178">
+    <row r="379" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B379" s="188">
         <v>27</v>
       </c>
-      <c r="C379" s="176"/>
+      <c r="C379" s="191"/>
       <c r="D379" s="11" t="s">
         <v>9</v>
       </c>
@@ -14984,9 +14984,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="380" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B380" s="179"/>
-      <c r="C380" s="177"/>
+    <row r="380" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B380" s="189"/>
+      <c r="C380" s="192"/>
       <c r="D380" s="111">
         <v>0</v>
       </c>
@@ -15015,13 +15015,13 @@
       </c>
       <c r="K380" s="113"/>
       <c r="L380" s="155"/>
-      <c r="M380" s="209">
+      <c r="M380" s="176">
         <f>IFERROR((180/($D$2*D380)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="180"/>
+    <row r="381" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="190"/>
       <c r="C381" s="16"/>
       <c r="D381" s="114">
         <v>0</v>
@@ -15055,9 +15055,9 @@
         <f t="shared" ref="L381" si="184">J380+J381</f>
         <v>0</v>
       </c>
-      <c r="M381" s="210"/>
-    </row>
-    <row r="382" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M381" s="177"/>
+    </row>
+    <row r="382" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B382" s="20"/>
       <c r="C382" s="20"/>
       <c r="D382" s="112"/>
@@ -15071,7 +15071,7 @@
       <c r="L382" s="157"/>
       <c r="M382" s="26"/>
     </row>
-    <row r="383" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B383" s="19"/>
       <c r="C383" s="20"/>
       <c r="D383" s="112"/>
@@ -15085,7 +15085,7 @@
       <c r="L383" s="103"/>
       <c r="M383" s="26"/>
     </row>
-    <row r="384" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B384" s="19"/>
       <c r="C384" s="20"/>
       <c r="D384" s="112"/>
@@ -15099,7 +15099,7 @@
       <c r="L384" s="103"/>
       <c r="M384" s="26"/>
     </row>
-    <row r="385" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B385" s="19"/>
       <c r="C385" s="20"/>
       <c r="D385" s="112"/>
@@ -15113,7 +15113,7 @@
       <c r="L385" s="103"/>
       <c r="M385" s="26"/>
     </row>
-    <row r="386" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B386" s="19"/>
       <c r="C386" s="20"/>
       <c r="D386" s="112"/>
@@ -15127,7 +15127,7 @@
       <c r="L386" s="103"/>
       <c r="M386" s="26"/>
     </row>
-    <row r="387" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B387" s="27"/>
       <c r="C387" s="20"/>
       <c r="D387" s="112"/>
@@ -15141,11 +15141,11 @@
       <c r="L387" s="158"/>
       <c r="M387" s="26"/>
     </row>
-    <row r="388" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="178">
+    <row r="388" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="188">
         <v>28</v>
       </c>
-      <c r="C388" s="176"/>
+      <c r="C388" s="191"/>
       <c r="D388" s="11" t="s">
         <v>9</v>
       </c>
@@ -15177,9 +15177,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="389" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B389" s="179"/>
-      <c r="C389" s="177"/>
+    <row r="389" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B389" s="189"/>
+      <c r="C389" s="192"/>
       <c r="D389" s="111">
         <v>0</v>
       </c>
@@ -15208,13 +15208,13 @@
       </c>
       <c r="K389" s="113"/>
       <c r="L389" s="155"/>
-      <c r="M389" s="209">
+      <c r="M389" s="176">
         <f>IFERROR((180/($D$2*D389)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="180"/>
+    <row r="390" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="190"/>
       <c r="C390" s="16"/>
       <c r="D390" s="114">
         <v>0</v>
@@ -15248,9 +15248,9 @@
         <f t="shared" ref="L390" si="191">J389+J390</f>
         <v>0</v>
       </c>
-      <c r="M390" s="210"/>
-    </row>
-    <row r="391" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M390" s="177"/>
+    </row>
+    <row r="391" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B391" s="20"/>
       <c r="C391" s="20"/>
       <c r="D391" s="112"/>
@@ -15264,7 +15264,7 @@
       <c r="L391" s="157"/>
       <c r="M391" s="26"/>
     </row>
-    <row r="392" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B392" s="19"/>
       <c r="C392" s="20"/>
       <c r="D392" s="112"/>
@@ -15278,7 +15278,7 @@
       <c r="L392" s="103"/>
       <c r="M392" s="26"/>
     </row>
-    <row r="393" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B393" s="19"/>
       <c r="C393" s="20"/>
       <c r="D393" s="112"/>
@@ -15292,7 +15292,7 @@
       <c r="L393" s="103"/>
       <c r="M393" s="26"/>
     </row>
-    <row r="394" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B394" s="19"/>
       <c r="C394" s="20"/>
       <c r="D394" s="112"/>
@@ -15306,7 +15306,7 @@
       <c r="L394" s="103"/>
       <c r="M394" s="26"/>
     </row>
-    <row r="395" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B395" s="19"/>
       <c r="C395" s="20"/>
       <c r="D395" s="112"/>
@@ -15320,7 +15320,7 @@
       <c r="L395" s="103"/>
       <c r="M395" s="26"/>
     </row>
-    <row r="396" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B396" s="27"/>
       <c r="C396" s="20"/>
       <c r="D396" s="112"/>
@@ -15334,11 +15334,11 @@
       <c r="L396" s="158"/>
       <c r="M396" s="26"/>
     </row>
-    <row r="397" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="178">
+    <row r="397" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="188">
         <v>29</v>
       </c>
-      <c r="C397" s="176"/>
+      <c r="C397" s="191"/>
       <c r="D397" s="11" t="s">
         <v>9</v>
       </c>
@@ -15370,9 +15370,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="398" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B398" s="179"/>
-      <c r="C398" s="177"/>
+    <row r="398" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B398" s="189"/>
+      <c r="C398" s="192"/>
       <c r="D398" s="111">
         <v>0</v>
       </c>
@@ -15401,13 +15401,13 @@
       </c>
       <c r="K398" s="113"/>
       <c r="L398" s="155"/>
-      <c r="M398" s="209">
+      <c r="M398" s="176">
         <f>IFERROR((180/($D$2*D398)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B399" s="180"/>
+    <row r="399" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="190"/>
       <c r="C399" s="16"/>
       <c r="D399" s="114">
         <v>0</v>
@@ -15441,9 +15441,9 @@
         <f t="shared" ref="L399" si="198">J398+J399</f>
         <v>0</v>
       </c>
-      <c r="M399" s="210"/>
-    </row>
-    <row r="400" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M399" s="177"/>
+    </row>
+    <row r="400" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B400" s="20"/>
       <c r="C400" s="20"/>
       <c r="D400" s="112"/>
@@ -15457,7 +15457,7 @@
       <c r="L400" s="157"/>
       <c r="M400" s="26"/>
     </row>
-    <row r="401" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B401" s="19"/>
       <c r="C401" s="20"/>
       <c r="D401" s="112"/>
@@ -15471,7 +15471,7 @@
       <c r="L401" s="103"/>
       <c r="M401" s="26"/>
     </row>
-    <row r="402" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B402" s="19"/>
       <c r="C402" s="20"/>
       <c r="D402" s="112"/>
@@ -15485,7 +15485,7 @@
       <c r="L402" s="103"/>
       <c r="M402" s="26"/>
     </row>
-    <row r="403" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B403" s="19"/>
       <c r="C403" s="20"/>
       <c r="D403" s="112"/>
@@ -15499,7 +15499,7 @@
       <c r="L403" s="103"/>
       <c r="M403" s="26"/>
     </row>
-    <row r="404" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B404" s="19"/>
       <c r="C404" s="20"/>
       <c r="D404" s="112"/>
@@ -15513,7 +15513,7 @@
       <c r="L404" s="103"/>
       <c r="M404" s="26"/>
     </row>
-    <row r="405" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B405" s="27"/>
       <c r="C405" s="20"/>
       <c r="D405" s="112"/>
@@ -15527,11 +15527,11 @@
       <c r="L405" s="158"/>
       <c r="M405" s="26"/>
     </row>
-    <row r="406" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="178">
+    <row r="406" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="188">
         <v>30</v>
       </c>
-      <c r="C406" s="176"/>
+      <c r="C406" s="191"/>
       <c r="D406" s="11" t="s">
         <v>9</v>
       </c>
@@ -15563,9 +15563,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="407" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B407" s="179"/>
-      <c r="C407" s="177"/>
+    <row r="407" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B407" s="189"/>
+      <c r="C407" s="192"/>
       <c r="D407" s="111">
         <v>0</v>
       </c>
@@ -15594,13 +15594,13 @@
       </c>
       <c r="K407" s="113"/>
       <c r="L407" s="155"/>
-      <c r="M407" s="209">
+      <c r="M407" s="176">
         <f>IFERROR((180/($D$2*D407)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="180"/>
+    <row r="408" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="190"/>
       <c r="C408" s="16"/>
       <c r="D408" s="114">
         <v>0</v>
@@ -15634,9 +15634,9 @@
         <f t="shared" ref="L408" si="205">J407+J408</f>
         <v>0</v>
       </c>
-      <c r="M408" s="210"/>
-    </row>
-    <row r="409" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M408" s="177"/>
+    </row>
+    <row r="409" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B409" s="20"/>
       <c r="C409" s="20"/>
       <c r="D409" s="112"/>
@@ -15650,7 +15650,7 @@
       <c r="L409" s="157"/>
       <c r="M409" s="26"/>
     </row>
-    <row r="410" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
       <c r="D410" s="112"/>
@@ -15664,7 +15664,7 @@
       <c r="L410" s="103"/>
       <c r="M410" s="26"/>
     </row>
-    <row r="411" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B411" s="19"/>
       <c r="C411" s="20"/>
       <c r="D411" s="112"/>
@@ -15678,7 +15678,7 @@
       <c r="L411" s="103"/>
       <c r="M411" s="26"/>
     </row>
-    <row r="412" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B412" s="19"/>
       <c r="C412" s="20"/>
       <c r="D412" s="112"/>
@@ -15692,7 +15692,7 @@
       <c r="L412" s="103"/>
       <c r="M412" s="26"/>
     </row>
-    <row r="413" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B413" s="19"/>
       <c r="C413" s="20"/>
       <c r="D413" s="112"/>
@@ -15706,7 +15706,7 @@
       <c r="L413" s="103"/>
       <c r="M413" s="26"/>
     </row>
-    <row r="414" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B414" s="27"/>
       <c r="C414" s="20"/>
       <c r="D414" s="112"/>
@@ -15720,11 +15720,11 @@
       <c r="L414" s="158"/>
       <c r="M414" s="26"/>
     </row>
-    <row r="415" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="178">
+    <row r="415" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="188">
         <v>31</v>
       </c>
-      <c r="C415" s="176"/>
+      <c r="C415" s="191"/>
       <c r="D415" s="11" t="s">
         <v>9</v>
       </c>
@@ -15756,9 +15756,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="416" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B416" s="179"/>
-      <c r="C416" s="177"/>
+    <row r="416" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B416" s="189"/>
+      <c r="C416" s="192"/>
       <c r="D416" s="111">
         <v>0</v>
       </c>
@@ -15787,13 +15787,13 @@
       </c>
       <c r="K416" s="113"/>
       <c r="L416" s="155"/>
-      <c r="M416" s="209">
+      <c r="M416" s="176">
         <f>IFERROR((180/($D$2*D416)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B417" s="180"/>
+    <row r="417" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="190"/>
       <c r="C417" s="16"/>
       <c r="D417" s="114">
         <v>0</v>
@@ -15827,9 +15827,9 @@
         <f t="shared" ref="L417" si="212">J416+J417</f>
         <v>0</v>
       </c>
-      <c r="M417" s="210"/>
-    </row>
-    <row r="418" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M417" s="177"/>
+    </row>
+    <row r="418" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B418" s="20"/>
       <c r="C418" s="20"/>
       <c r="D418" s="112"/>
@@ -15843,7 +15843,7 @@
       <c r="L418" s="157"/>
       <c r="M418" s="26"/>
     </row>
-    <row r="419" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B419" s="19"/>
       <c r="C419" s="20"/>
       <c r="D419" s="112"/>
@@ -15857,7 +15857,7 @@
       <c r="L419" s="103"/>
       <c r="M419" s="26"/>
     </row>
-    <row r="420" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B420" s="19"/>
       <c r="C420" s="20"/>
       <c r="D420" s="112"/>
@@ -15871,7 +15871,7 @@
       <c r="L420" s="103"/>
       <c r="M420" s="26"/>
     </row>
-    <row r="421" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B421" s="19"/>
       <c r="C421" s="20"/>
       <c r="D421" s="112"/>
@@ -15885,7 +15885,7 @@
       <c r="L421" s="103"/>
       <c r="M421" s="26"/>
     </row>
-    <row r="422" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B422" s="19"/>
       <c r="C422" s="20"/>
       <c r="D422" s="112"/>
@@ -15899,7 +15899,7 @@
       <c r="L422" s="103"/>
       <c r="M422" s="26"/>
     </row>
-    <row r="423" spans="2:13" ht="15.6" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:13" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B423" s="27"/>
       <c r="C423" s="20"/>
       <c r="D423" s="112"/>
@@ -15913,11 +15913,11 @@
       <c r="L423" s="158"/>
       <c r="M423" s="26"/>
     </row>
-    <row r="424" spans="2:13" ht="66" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="178">
+    <row r="424" spans="2:13" ht="63.75" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="188">
         <v>32</v>
       </c>
-      <c r="C424" s="176"/>
+      <c r="C424" s="191"/>
       <c r="D424" s="11" t="s">
         <v>9</v>
       </c>
@@ -15949,9 +15949,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="425" spans="2:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B425" s="179"/>
-      <c r="C425" s="177"/>
+    <row r="425" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B425" s="189"/>
+      <c r="C425" s="192"/>
       <c r="D425" s="111">
         <v>0</v>
       </c>
@@ -15980,13 +15980,13 @@
       </c>
       <c r="K425" s="113"/>
       <c r="L425" s="155"/>
-      <c r="M425" s="209">
+      <c r="M425" s="176">
         <f>IFERROR((180/($D$2*D425)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B426" s="180"/>
+    <row r="426" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="190"/>
       <c r="C426" s="16"/>
       <c r="D426" s="114">
         <v>0</v>
@@ -16020,9 +16020,9 @@
         <f t="shared" ref="L426" si="219">J425+J426</f>
         <v>0</v>
       </c>
-      <c r="M426" s="210"/>
-    </row>
-    <row r="427" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="M426" s="177"/>
+    </row>
+    <row r="427" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B427" s="20"/>
       <c r="C427" s="20"/>
       <c r="D427" s="112"/>
@@ -16035,7 +16035,7 @@
       <c r="K427" s="30"/>
       <c r="L427" s="30"/>
     </row>
-    <row r="428" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B428" s="19"/>
       <c r="C428" s="20"/>
       <c r="D428" s="112"/>
@@ -16048,7 +16048,7 @@
       <c r="K428" s="26"/>
       <c r="L428" s="26"/>
     </row>
-    <row r="429" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B429" s="19"/>
       <c r="C429" s="20"/>
       <c r="D429" s="112"/>
@@ -16061,7 +16061,7 @@
       <c r="K429" s="26"/>
       <c r="L429" s="26"/>
     </row>
-    <row r="430" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B430" s="19"/>
       <c r="C430" s="20"/>
       <c r="D430" s="112"/>
@@ -16074,7 +16074,7 @@
       <c r="K430" s="26"/>
       <c r="L430" s="26"/>
     </row>
-    <row r="431" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B431" s="19"/>
       <c r="C431" s="20"/>
       <c r="D431" s="112"/>
@@ -16087,7 +16087,7 @@
       <c r="K431" s="26"/>
       <c r="L431" s="26"/>
     </row>
-    <row r="432" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B432" s="27"/>
       <c r="C432" s="20"/>
       <c r="D432" s="112"/>
@@ -16100,7 +16100,7 @@
       <c r="K432" s="29"/>
       <c r="L432" s="29"/>
     </row>
-    <row r="433" spans="6:12" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:12" collapsed="1" x14ac:dyDescent="0.2">
       <c r="F433"/>
       <c r="G433"/>
       <c r="H433"/>
@@ -16111,73 +16111,44 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="M416:M417"/>
-    <mergeCell ref="M425:M426"/>
-    <mergeCell ref="M371:M372"/>
-    <mergeCell ref="M380:M381"/>
-    <mergeCell ref="M389:M390"/>
-    <mergeCell ref="M398:M399"/>
-    <mergeCell ref="M407:M408"/>
-    <mergeCell ref="M326:M327"/>
-    <mergeCell ref="M335:M336"/>
-    <mergeCell ref="M344:M345"/>
-    <mergeCell ref="M353:M354"/>
-    <mergeCell ref="M362:M363"/>
-    <mergeCell ref="M273:M274"/>
-    <mergeCell ref="M284:M285"/>
-    <mergeCell ref="M293:M294"/>
-    <mergeCell ref="M302:M303"/>
-    <mergeCell ref="M317:M318"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="M236:M237"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="M255:M256"/>
-    <mergeCell ref="M264:M265"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="M198:M199"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="M218:M219"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="M144:M145"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="M162:M163"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="B128:L128"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E1:I2"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="B283:B285"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C352:C353"/>
+    <mergeCell ref="B292:B294"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="B301:B303"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="B316:B318"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="B244:B246"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="B272:B274"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B424:B426"/>
     <mergeCell ref="C424:C425"/>
@@ -16202,44 +16173,73 @@
     <mergeCell ref="B343:B345"/>
     <mergeCell ref="C343:C344"/>
     <mergeCell ref="B352:B354"/>
-    <mergeCell ref="C352:C353"/>
-    <mergeCell ref="B292:B294"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="B301:B303"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="B316:B318"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="B244:B246"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="B283:B285"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E1:I2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="B128:L128"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="M198:M199"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="M218:M219"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="M144:M145"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="M162:M163"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="M273:M274"/>
+    <mergeCell ref="M284:M285"/>
+    <mergeCell ref="M293:M294"/>
+    <mergeCell ref="M302:M303"/>
+    <mergeCell ref="M317:M318"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="M236:M237"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="M255:M256"/>
+    <mergeCell ref="M264:M265"/>
+    <mergeCell ref="M416:M417"/>
+    <mergeCell ref="M425:M426"/>
+    <mergeCell ref="M371:M372"/>
+    <mergeCell ref="M380:M381"/>
+    <mergeCell ref="M389:M390"/>
+    <mergeCell ref="M398:M399"/>
+    <mergeCell ref="M407:M408"/>
+    <mergeCell ref="M326:M327"/>
+    <mergeCell ref="M335:M336"/>
+    <mergeCell ref="M344:M345"/>
+    <mergeCell ref="M353:M354"/>
+    <mergeCell ref="M362:M363"/>
   </mergeCells>
   <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
@@ -16305,20 +16305,20 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>15</v>
       </c>
@@ -16333,7 +16333,7 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
     </row>
-    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
         <v>1</v>
       </c>
@@ -16346,7 +16346,7 @@
       <c r="H4" s="59"/>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -16357,7 +16357,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="62"/>
     </row>
-    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="63" t="s">
         <v>30</v>
@@ -16370,7 +16370,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="62"/>
     </row>
-    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="66"/>
       <c r="C7" s="6"/>
@@ -16381,7 +16381,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="1:23" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="68" t="s">
         <v>55</v>
@@ -16410,7 +16410,7 @@
       <c r="J8" s="83"/>
       <c r="W8" s="83"/>
     </row>
-    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="4"/>
       <c r="C9" s="72">
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="66"/>
       <c r="C10" s="6"/>
@@ -16445,7 +16445,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="74" t="s">
         <v>61</v>
@@ -16458,7 +16458,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="66"/>
       <c r="C12" s="6"/>
@@ -16469,7 +16469,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="62"/>
     </row>
-    <row r="13" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
       <c r="B13" s="108" t="s">
         <v>111</v>
@@ -16490,7 +16490,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="109">
         <v>0</v>
@@ -16513,7 +16513,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="62"/>
     </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="66"/>
       <c r="C15" s="6"/>
@@ -16524,7 +16524,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="74" t="s">
         <v>63</v>
@@ -16537,7 +16537,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="62"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="66"/>
       <c r="C17" s="6"/>
@@ -16548,7 +16548,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61"/>
       <c r="B18" s="4" t="s">
         <v>64</v>
@@ -16565,7 +16565,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="62"/>
     </row>
-    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77"/>
       <c r="B19" s="78">
         <f>(B14+C14)*2</f>
@@ -16592,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -16603,7 +16603,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
         <v>2</v>
       </c>
@@ -16616,7 +16616,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -16627,7 +16627,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="62"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="63" t="s">
         <v>30</v>
@@ -16640,7 +16640,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="66"/>
       <c r="C24" s="6"/>
@@ -16651,7 +16651,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="62"/>
     </row>
-    <row r="25" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="68" t="s">
         <v>55</v>
@@ -16678,7 +16678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="4">
         <v>0</v>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="66"/>
       <c r="C27" s="6"/>
@@ -16719,7 +16719,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="62"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="74" t="s">
         <v>61</v>
@@ -16732,7 +16732,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="62"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="66"/>
       <c r="C29" s="6"/>
@@ -16743,7 +16743,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="108" t="s">
         <v>111</v>
@@ -16764,7 +16764,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
       <c r="B31" s="109">
         <v>0</v>
@@ -16787,7 +16787,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
       <c r="B32" s="66"/>
       <c r="C32" s="6"/>
@@ -16798,7 +16798,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="74" t="s">
         <v>63</v>
@@ -16811,7 +16811,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="66"/>
       <c r="C34" s="6"/>
@@ -16822,7 +16822,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="62"/>
     </row>
-    <row r="35" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61"/>
       <c r="B35" s="4" t="s">
         <v>64</v>
@@ -16839,7 +16839,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="62"/>
     </row>
-    <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="77"/>
       <c r="B36" s="78">
         <f>(B31+C31)*2</f>
@@ -16866,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
@@ -16877,7 +16877,7 @@
       <c r="H37" s="57"/>
       <c r="I37" s="57"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="58">
         <v>3</v>
       </c>
@@ -16890,7 +16890,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -16901,7 +16901,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="62"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="63" t="s">
         <v>30</v>
@@ -16914,7 +16914,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
       <c r="B41" s="66"/>
       <c r="C41" s="6"/>
@@ -16925,7 +16925,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="62"/>
     </row>
-    <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
       <c r="B42" s="68" t="s">
         <v>55</v>
@@ -16952,7 +16952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="4">
         <v>0</v>
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="66"/>
       <c r="C44" s="6"/>
@@ -16993,7 +16993,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="62"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="74" t="s">
         <v>61</v>
@@ -17006,7 +17006,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="66"/>
       <c r="C46" s="6"/>
@@ -17017,7 +17017,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="108" t="s">
         <v>111</v>
@@ -17038,7 +17038,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="61"/>
       <c r="B48" s="109">
         <v>0</v>
@@ -17061,7 +17061,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="61"/>
       <c r="B49" s="66"/>
       <c r="C49" s="6"/>
@@ -17072,7 +17072,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="74" t="s">
         <v>63</v>
@@ -17085,7 +17085,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="66"/>
       <c r="C51" s="6"/>
@@ -17096,7 +17096,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61"/>
       <c r="B52" s="4" t="s">
         <v>64</v>
@@ -17113,7 +17113,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="77"/>
       <c r="B53" s="78">
         <f>(B48+C48)*2</f>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -17151,7 +17151,7 @@
       <c r="H54" s="57"/>
       <c r="I54" s="57"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="58">
         <v>4</v>
       </c>
@@ -17164,7 +17164,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="60"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -17175,7 +17175,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="62"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="61"/>
       <c r="B57" s="63" t="s">
         <v>30</v>
@@ -17188,7 +17188,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="62"/>
     </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="61"/>
       <c r="B58" s="66"/>
       <c r="C58" s="6"/>
@@ -17199,7 +17199,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="61"/>
       <c r="B59" s="68" t="s">
         <v>55</v>
@@ -17226,7 +17226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="61"/>
       <c r="B60" s="4">
         <v>0</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="61"/>
       <c r="B61" s="66"/>
       <c r="C61" s="6"/>
@@ -17267,7 +17267,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="61"/>
       <c r="B62" s="74" t="s">
         <v>61</v>
@@ -17280,7 +17280,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="61"/>
       <c r="B63" s="66"/>
       <c r="C63" s="6"/>
@@ -17291,7 +17291,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="61"/>
       <c r="B64" s="108" t="s">
         <v>111</v>
@@ -17312,7 +17312,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
       <c r="B65" s="109">
         <v>0</v>
@@ -17335,7 +17335,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="61"/>
       <c r="B66" s="66"/>
       <c r="C66" s="6"/>
@@ -17346,7 +17346,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="61"/>
       <c r="B67" s="74" t="s">
         <v>63</v>
@@ -17359,7 +17359,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="62"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="61"/>
       <c r="B68" s="66"/>
       <c r="C68" s="6"/>
@@ -17370,7 +17370,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="62"/>
     </row>
-    <row r="69" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="61"/>
       <c r="B69" s="4" t="s">
         <v>64</v>
@@ -17387,7 +17387,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="77"/>
       <c r="B70" s="78">
         <f>(B65+C65)*2</f>
@@ -17414,8 +17414,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="58">
         <v>5</v>
       </c>
@@ -17428,7 +17428,7 @@
       <c r="H72" s="59"/>
       <c r="I72" s="60"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -17439,7 +17439,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="62"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="61"/>
       <c r="B74" s="63" t="s">
         <v>30</v>
@@ -17452,7 +17452,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="62"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="61"/>
       <c r="B75" s="66"/>
       <c r="C75" s="6"/>
@@ -17463,7 +17463,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="62"/>
     </row>
-    <row r="76" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="61"/>
       <c r="B76" s="68" t="s">
         <v>55</v>
@@ -17490,7 +17490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="61"/>
       <c r="B77" s="4">
         <v>0</v>
@@ -17520,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="61"/>
       <c r="B78" s="66"/>
       <c r="C78" s="6"/>
@@ -17531,7 +17531,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="62"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="61"/>
       <c r="B79" s="74" t="s">
         <v>61</v>
@@ -17544,7 +17544,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="62"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="61"/>
       <c r="B80" s="66"/>
       <c r="C80" s="6"/>
@@ -17555,7 +17555,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="62"/>
     </row>
-    <row r="81" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="61"/>
       <c r="B81" s="108" t="s">
         <v>111</v>
@@ -17576,7 +17576,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="62"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="61"/>
       <c r="B82" s="109">
         <v>0</v>
@@ -17599,7 +17599,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="62"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61"/>
       <c r="B83" s="66"/>
       <c r="C83" s="6"/>
@@ -17610,7 +17610,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="62"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
       <c r="B84" s="74" t="s">
         <v>63</v>
@@ -17623,7 +17623,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="62"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="61"/>
       <c r="B85" s="66"/>
       <c r="C85" s="6"/>
@@ -17634,7 +17634,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="62"/>
     </row>
-    <row r="86" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="61"/>
       <c r="B86" s="4" t="s">
         <v>64</v>
@@ -17651,7 +17651,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="62"/>
     </row>
-    <row r="87" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="77"/>
       <c r="B87" s="78">
         <f>(B82+C82)*2</f>
@@ -17678,8 +17678,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="58">
         <v>6</v>
       </c>
@@ -17692,7 +17692,7 @@
       <c r="H89" s="59"/>
       <c r="I89" s="60"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="61"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -17703,7 +17703,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="62"/>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61"/>
       <c r="B91" s="63" t="s">
         <v>30</v>
@@ -17716,7 +17716,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="62"/>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="61"/>
       <c r="B92" s="66"/>
       <c r="C92" s="6"/>
@@ -17727,7 +17727,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="62"/>
     </row>
-    <row r="93" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
       <c r="B93" s="68" t="s">
         <v>55</v>
@@ -17754,7 +17754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="61"/>
       <c r="B94" s="4">
         <v>0</v>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="61"/>
       <c r="B95" s="66"/>
       <c r="C95" s="6"/>
@@ -17795,7 +17795,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="62"/>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="61"/>
       <c r="B96" s="74" t="s">
         <v>61</v>
@@ -17808,7 +17808,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="62"/>
     </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="61"/>
       <c r="B97" s="66"/>
       <c r="C97" s="6"/>
@@ -17819,7 +17819,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="62"/>
     </row>
-    <row r="98" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="61"/>
       <c r="B98" s="108" t="s">
         <v>111</v>
@@ -17840,7 +17840,7 @@
       <c r="H98" s="6"/>
       <c r="I98" s="62"/>
     </row>
-    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="61"/>
       <c r="B99" s="109">
         <v>0</v>
@@ -17863,7 +17863,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="62"/>
     </row>
-    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="61"/>
       <c r="B100" s="66"/>
       <c r="C100" s="6"/>
@@ -17874,7 +17874,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="62"/>
     </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="61"/>
       <c r="B101" s="74" t="s">
         <v>63</v>
@@ -17887,7 +17887,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="62"/>
     </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="61"/>
       <c r="B102" s="66"/>
       <c r="C102" s="6"/>
@@ -17898,7 +17898,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="62"/>
     </row>
-    <row r="103" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="61"/>
       <c r="B103" s="4" t="s">
         <v>64</v>
@@ -17915,7 +17915,7 @@
       <c r="H103" s="6"/>
       <c r="I103" s="62"/>
     </row>
-    <row r="104" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="77"/>
       <c r="B104" s="78">
         <f>(B99+C99)*2</f>
@@ -17942,8 +17942,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="58">
         <v>7</v>
       </c>
@@ -17956,7 +17956,7 @@
       <c r="H106" s="59"/>
       <c r="I106" s="60"/>
     </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="61"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -17967,7 +17967,7 @@
       <c r="H107" s="6"/>
       <c r="I107" s="62"/>
     </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="61"/>
       <c r="B108" s="63" t="s">
         <v>30</v>
@@ -17980,7 +17980,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="62"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="61"/>
       <c r="B109" s="66"/>
       <c r="C109" s="6"/>
@@ -17991,7 +17991,7 @@
       <c r="H109" s="6"/>
       <c r="I109" s="62"/>
     </row>
-    <row r="110" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="61"/>
       <c r="B110" s="68" t="s">
         <v>55</v>
@@ -18018,7 +18018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="61"/>
       <c r="B111" s="4">
         <v>0</v>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="61"/>
       <c r="B112" s="66"/>
       <c r="C112" s="6"/>
@@ -18059,7 +18059,7 @@
       <c r="H112" s="6"/>
       <c r="I112" s="62"/>
     </row>
-    <row r="113" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="61"/>
       <c r="B113" s="74" t="s">
         <v>61</v>
@@ -18072,7 +18072,7 @@
       <c r="H113" s="6"/>
       <c r="I113" s="62"/>
     </row>
-    <row r="114" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="61"/>
       <c r="B114" s="66"/>
       <c r="C114" s="6"/>
@@ -18083,7 +18083,7 @@
       <c r="H114" s="6"/>
       <c r="I114" s="62"/>
     </row>
-    <row r="115" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="61"/>
       <c r="B115" s="108" t="s">
         <v>111</v>
@@ -18104,7 +18104,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="62"/>
     </row>
-    <row r="116" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="61"/>
       <c r="B116" s="109">
         <v>0</v>
@@ -18127,7 +18127,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="62"/>
     </row>
-    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="61"/>
       <c r="B117" s="66"/>
       <c r="C117" s="6"/>
@@ -18138,7 +18138,7 @@
       <c r="H117" s="6"/>
       <c r="I117" s="62"/>
     </row>
-    <row r="118" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="61"/>
       <c r="B118" s="74" t="s">
         <v>63</v>
@@ -18151,7 +18151,7 @@
       <c r="H118" s="6"/>
       <c r="I118" s="62"/>
     </row>
-    <row r="119" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="61"/>
       <c r="B119" s="66"/>
       <c r="C119" s="6"/>
@@ -18162,7 +18162,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="62"/>
     </row>
-    <row r="120" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="61"/>
       <c r="B120" s="4" t="s">
         <v>64</v>
@@ -18179,7 +18179,7 @@
       <c r="H120" s="6"/>
       <c r="I120" s="62"/>
     </row>
-    <row r="121" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="77"/>
       <c r="B121" s="78">
         <f>(B116+C116)*2</f>
@@ -18206,8 +18206,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="58">
         <v>8</v>
       </c>
@@ -18220,7 +18220,7 @@
       <c r="H123" s="59"/>
       <c r="I123" s="60"/>
     </row>
-    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="61"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -18231,7 +18231,7 @@
       <c r="H124" s="6"/>
       <c r="I124" s="62"/>
     </row>
-    <row r="125" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="61"/>
       <c r="B125" s="63" t="s">
         <v>30</v>
@@ -18244,7 +18244,7 @@
       <c r="H125" s="6"/>
       <c r="I125" s="62"/>
     </row>
-    <row r="126" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="61"/>
       <c r="B126" s="66"/>
       <c r="C126" s="6"/>
@@ -18255,7 +18255,7 @@
       <c r="H126" s="6"/>
       <c r="I126" s="62"/>
     </row>
-    <row r="127" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="61"/>
       <c r="B127" s="68" t="s">
         <v>55</v>
@@ -18282,7 +18282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="61"/>
       <c r="B128" s="4">
         <v>0</v>
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="61"/>
       <c r="B129" s="66"/>
       <c r="C129" s="6"/>
@@ -18319,7 +18319,7 @@
       <c r="H129" s="6"/>
       <c r="I129" s="62"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="61"/>
       <c r="B130" s="74" t="s">
         <v>61</v>
@@ -18332,7 +18332,7 @@
       <c r="H130" s="6"/>
       <c r="I130" s="62"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="61"/>
       <c r="B131" s="66"/>
       <c r="C131" s="6"/>
@@ -18343,7 +18343,7 @@
       <c r="H131" s="6"/>
       <c r="I131" s="62"/>
     </row>
-    <row r="132" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="61"/>
       <c r="B132" s="108" t="s">
         <v>111</v>
@@ -18364,7 +18364,7 @@
       <c r="H132" s="6"/>
       <c r="I132" s="62"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="61"/>
       <c r="B133" s="109">
         <v>0</v>
@@ -18387,7 +18387,7 @@
       <c r="H133" s="6"/>
       <c r="I133" s="62"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="61"/>
       <c r="B134" s="66"/>
       <c r="C134" s="6"/>
@@ -18398,7 +18398,7 @@
       <c r="H134" s="6"/>
       <c r="I134" s="62"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="61"/>
       <c r="B135" s="74" t="s">
         <v>63</v>
@@ -18411,7 +18411,7 @@
       <c r="H135" s="6"/>
       <c r="I135" s="62"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="61"/>
       <c r="B136" s="66"/>
       <c r="C136" s="6"/>
@@ -18422,7 +18422,7 @@
       <c r="H136" s="6"/>
       <c r="I136" s="62"/>
     </row>
-    <row r="137" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="61"/>
       <c r="B137" s="4" t="s">
         <v>64</v>
@@ -18439,7 +18439,7 @@
       <c r="H137" s="6"/>
       <c r="I137" s="62"/>
     </row>
-    <row r="138" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="77"/>
       <c r="B138" s="78">
         <f>(B133+C133)*2</f>
@@ -18466,8 +18466,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="58">
         <v>9</v>
       </c>
@@ -18480,7 +18480,7 @@
       <c r="H140" s="59"/>
       <c r="I140" s="60"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="61"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -18491,7 +18491,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="62"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="61"/>
       <c r="B142" s="63" t="s">
         <v>30</v>
@@ -18504,7 +18504,7 @@
       <c r="H142" s="6"/>
       <c r="I142" s="62"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="61"/>
       <c r="B143" s="66"/>
       <c r="C143" s="6"/>
@@ -18515,7 +18515,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="62"/>
     </row>
-    <row r="144" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" s="61"/>
       <c r="B144" s="68" t="s">
         <v>55</v>
@@ -18542,7 +18542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="61"/>
       <c r="B145" s="4">
         <v>0</v>
@@ -18572,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="61"/>
       <c r="B146" s="66"/>
       <c r="C146" s="6"/>
@@ -18583,7 +18583,7 @@
       <c r="H146" s="6"/>
       <c r="I146" s="62"/>
     </row>
-    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="61"/>
       <c r="B147" s="74" t="s">
         <v>61</v>
@@ -18596,7 +18596,7 @@
       <c r="H147" s="6"/>
       <c r="I147" s="62"/>
     </row>
-    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="61"/>
       <c r="B148" s="66"/>
       <c r="C148" s="6"/>
@@ -18607,7 +18607,7 @@
       <c r="H148" s="6"/>
       <c r="I148" s="62"/>
     </row>
-    <row r="149" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="61"/>
       <c r="B149" s="108" t="s">
         <v>111</v>
@@ -18628,7 +18628,7 @@
       <c r="H149" s="6"/>
       <c r="I149" s="62"/>
     </row>
-    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="61"/>
       <c r="B150" s="109">
         <v>0</v>
@@ -18651,7 +18651,7 @@
       <c r="H150" s="6"/>
       <c r="I150" s="62"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="61"/>
       <c r="B151" s="66"/>
       <c r="C151" s="6"/>
@@ -18662,7 +18662,7 @@
       <c r="H151" s="6"/>
       <c r="I151" s="62"/>
     </row>
-    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="61"/>
       <c r="B152" s="74" t="s">
         <v>63</v>
@@ -18675,7 +18675,7 @@
       <c r="H152" s="6"/>
       <c r="I152" s="62"/>
     </row>
-    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="61"/>
       <c r="B153" s="66"/>
       <c r="C153" s="6"/>
@@ -18686,7 +18686,7 @@
       <c r="H153" s="6"/>
       <c r="I153" s="62"/>
     </row>
-    <row r="154" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="61"/>
       <c r="B154" s="4" t="s">
         <v>64</v>
@@ -18703,7 +18703,7 @@
       <c r="H154" s="6"/>
       <c r="I154" s="62"/>
     </row>
-    <row r="155" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="77"/>
       <c r="B155" s="78">
         <f>(B150+C150)*2</f>
@@ -18766,16 +18766,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B140:D140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18792,29 +18792,29 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" customWidth="1"/>
-    <col min="17" max="17" width="38.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" customWidth="1"/>
+    <col min="16" max="16" width="30.1640625" customWidth="1"/>
+    <col min="17" max="17" width="38.6640625" customWidth="1"/>
     <col min="18" max="18" width="33" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="22" width="16.42578125" customWidth="1"/>
+    <col min="21" max="22" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18892,7 +18892,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="97">
         <v>1</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>86.59620000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="97">
         <f>A3+1</f>
         <v>2</v>
@@ -19045,7 +19045,7 @@
         <v>104.28696562500001</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <f t="shared" ref="A5:A68" si="6">A4+1</f>
         <v>3</v>
@@ -19122,7 +19122,7 @@
         <v>933.63916666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="97">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -19199,7 +19199,7 @@
         <v>1631.4894899999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="97">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -19276,7 +19276,7 @@
         <v>526.10641708333333</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="97">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -19353,7 +19353,7 @@
         <v>526.10641708333333</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="97">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -19430,7 +19430,7 @@
         <v>228.73545375000003</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="97">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -19507,7 +19507,7 @@
         <v>134.1792925</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="97">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -19584,7 +19584,7 @@
         <v>228.73545375000003</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="97">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -19661,7 +19661,7 @@
         <v>62.964301666666671</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="97">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -19738,7 +19738,7 @@
         <v>298.28926541666669</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="97">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -19815,7 +19815,7 @@
         <v>282.02359583333333</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="97">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -19892,7 +19892,7 @@
         <v>32.495579166666666</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="97">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -19969,7 +19969,7 @@
         <v>414.10188249999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="97">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -20046,7 +20046,7 @@
         <v>32.096807083333331</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="97">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -20123,7 +20123,7 @@
         <v>118.92615000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="97">
         <f>A18+1</f>
         <v>17</v>
@@ -20200,7 +20200,7 @@
         <v>360.56158833333336</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="97">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -20277,7 +20277,7 @@
         <v>118.92615000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="97">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -20354,7 +20354,7 @@
         <v>79.499487500000015</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="97">
         <f t="shared" si="6"/>
         <v>20</v>
@@ -20431,7 +20431,7 @@
         <v>255.37894583333338</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="97">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -20508,7 +20508,7 @@
         <v>156.35798125000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="97">
         <f t="shared" si="6"/>
         <v>22</v>
@@ -20585,7 +20585,7 @@
         <v>25.482769166666667</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="97">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -20662,7 +20662,7 @@
         <v>884.87550083333349</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="97">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="97">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -20802,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="97">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -20872,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="97">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="97">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="97">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -21082,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="97">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -21152,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="97">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="97">
         <f t="shared" si="6"/>
         <v>32</v>
@@ -21292,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="97">
         <f t="shared" si="6"/>
         <v>33</v>
@@ -21362,7 +21362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="97">
         <f t="shared" si="6"/>
         <v>34</v>
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="97">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -21502,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="97">
         <f t="shared" si="6"/>
         <v>36</v>
@@ -21572,7 +21572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="97">
         <f t="shared" si="6"/>
         <v>37</v>
@@ -21642,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="97">
         <f t="shared" si="6"/>
         <v>38</v>
@@ -21712,7 +21712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="97">
         <f t="shared" si="6"/>
         <v>39</v>
@@ -21782,7 +21782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="97">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -21852,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="97">
         <f t="shared" si="6"/>
         <v>41</v>
@@ -21922,7 +21922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="97">
         <f t="shared" si="6"/>
         <v>42</v>
@@ -21992,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="97">
         <f t="shared" si="6"/>
         <v>43</v>
@@ -22062,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="97">
         <f t="shared" si="6"/>
         <v>44</v>
@@ -22132,7 +22132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="97">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="97">
         <f t="shared" si="6"/>
         <v>46</v>
@@ -22272,7 +22272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="97">
         <f t="shared" si="6"/>
         <v>47</v>
@@ -22342,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="97">
         <f t="shared" si="6"/>
         <v>48</v>
@@ -22412,7 +22412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="97">
         <f t="shared" si="6"/>
         <v>49</v>
@@ -22482,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="97">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="97">
         <f t="shared" si="6"/>
         <v>51</v>
@@ -22622,7 +22622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="97">
         <f t="shared" si="6"/>
         <v>52</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="97">
         <f t="shared" si="6"/>
         <v>53</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="97">
         <f t="shared" si="6"/>
         <v>54</v>
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="97">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="97">
         <f t="shared" si="6"/>
         <v>56</v>
@@ -22972,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="97">
         <f t="shared" si="6"/>
         <v>57</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="97">
         <f t="shared" si="6"/>
         <v>58</v>
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="97">
         <f t="shared" si="6"/>
         <v>59</v>
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="97">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -23252,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="97">
         <f t="shared" si="6"/>
         <v>61</v>
@@ -23322,7 +23322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="97">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="97">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="97">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="97">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -23602,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="97">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -23672,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="97">
         <f t="shared" ref="A69:A132" si="19">A68+1</f>
         <v>67</v>
@@ -23742,7 +23742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="97">
         <f t="shared" si="19"/>
         <v>68</v>
@@ -23812,7 +23812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="97">
         <f t="shared" si="19"/>
         <v>69</v>
@@ -23882,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="97">
         <f t="shared" si="19"/>
         <v>70</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="97">
         <f t="shared" si="19"/>
         <v>71</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="97">
         <f t="shared" si="19"/>
         <v>72</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="97">
         <f t="shared" si="19"/>
         <v>73</v>
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="97">
         <f t="shared" si="19"/>
         <v>74</v>
@@ -24232,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="97">
         <f t="shared" si="19"/>
         <v>75</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="97">
         <f t="shared" si="19"/>
         <v>76</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="97">
         <f t="shared" si="19"/>
         <v>77</v>
@@ -24442,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="97">
         <f t="shared" si="19"/>
         <v>78</v>
@@ -24512,7 +24512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="97">
         <f t="shared" si="19"/>
         <v>79</v>
@@ -24582,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="97">
         <f t="shared" si="19"/>
         <v>80</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="97">
         <f t="shared" si="19"/>
         <v>81</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="97">
         <f t="shared" si="19"/>
         <v>82</v>
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="97">
         <f t="shared" si="19"/>
         <v>83</v>
@@ -24862,7 +24862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="97">
         <f t="shared" si="19"/>
         <v>84</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="97">
         <f t="shared" si="19"/>
         <v>85</v>
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="97">
         <f t="shared" si="19"/>
         <v>86</v>
@@ -25072,7 +25072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="97">
         <f t="shared" si="19"/>
         <v>87</v>
@@ -25142,7 +25142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="97">
         <f t="shared" si="19"/>
         <v>88</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="97">
         <f t="shared" si="19"/>
         <v>89</v>
@@ -25282,7 +25282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="97">
         <f t="shared" si="19"/>
         <v>90</v>
@@ -25352,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="97">
         <f t="shared" si="19"/>
         <v>91</v>
@@ -25422,7 +25422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="97">
         <f t="shared" si="19"/>
         <v>92</v>
@@ -25492,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="97">
         <f t="shared" si="19"/>
         <v>93</v>
@@ -25562,7 +25562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="97">
         <f t="shared" si="19"/>
         <v>94</v>
@@ -25632,7 +25632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="97">
         <f t="shared" si="19"/>
         <v>95</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="97">
         <f t="shared" si="19"/>
         <v>96</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="97">
         <f t="shared" si="19"/>
         <v>97</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="97">
         <f t="shared" si="19"/>
         <v>98</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="97">
         <f t="shared" si="19"/>
         <v>99</v>
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="97">
         <f t="shared" si="19"/>
         <v>100</v>
@@ -26052,7 +26052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="97">
         <f t="shared" si="19"/>
         <v>101</v>
@@ -26122,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="97">
         <f t="shared" si="19"/>
         <v>102</v>
@@ -26192,7 +26192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="97">
         <f t="shared" si="19"/>
         <v>103</v>
@@ -26262,7 +26262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="97">
         <f t="shared" si="19"/>
         <v>104</v>
@@ -26332,7 +26332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="97">
         <f t="shared" si="19"/>
         <v>105</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="97">
         <f t="shared" si="19"/>
         <v>106</v>
@@ -26472,7 +26472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="97">
         <f t="shared" si="19"/>
         <v>107</v>
@@ -26542,7 +26542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="97">
         <f t="shared" si="19"/>
         <v>108</v>
@@ -26612,7 +26612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="97">
         <f t="shared" si="19"/>
         <v>109</v>
@@ -26682,7 +26682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="97">
         <f t="shared" si="19"/>
         <v>110</v>
@@ -26752,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="97">
         <f t="shared" si="19"/>
         <v>111</v>
@@ -26822,7 +26822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="97">
         <f t="shared" si="19"/>
         <v>112</v>
@@ -26892,7 +26892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="97">
         <f t="shared" si="19"/>
         <v>113</v>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="97">
         <f t="shared" si="19"/>
         <v>114</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="97">
         <f t="shared" si="19"/>
         <v>115</v>
@@ -27102,7 +27102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="97">
         <f t="shared" si="19"/>
         <v>116</v>
@@ -27172,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="97">
         <f t="shared" si="19"/>
         <v>117</v>
@@ -27242,7 +27242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="97">
         <f t="shared" si="19"/>
         <v>118</v>
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="97">
         <f t="shared" si="19"/>
         <v>119</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="97">
         <f t="shared" si="19"/>
         <v>120</v>
@@ -27452,7 +27452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="97">
         <f t="shared" si="19"/>
         <v>121</v>
@@ -27522,7 +27522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="97">
         <f t="shared" si="19"/>
         <v>122</v>
@@ -27592,7 +27592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="97">
         <f t="shared" si="19"/>
         <v>123</v>
@@ -27662,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="97">
         <f t="shared" si="19"/>
         <v>124</v>
@@ -27732,7 +27732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="97">
         <f t="shared" si="19"/>
         <v>125</v>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="97">
         <f t="shared" si="19"/>
         <v>126</v>
@@ -27872,7 +27872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="97">
         <f t="shared" si="19"/>
         <v>127</v>
@@ -27942,7 +27942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="97">
         <f t="shared" si="19"/>
         <v>128</v>
@@ -28012,7 +28012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="97">
         <f t="shared" si="19"/>
         <v>129</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="97">
         <f t="shared" si="19"/>
         <v>130</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="97">
         <f t="shared" ref="A133:A196" si="26">A132+1</f>
         <v>131</v>
@@ -28222,7 +28222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="97">
         <f t="shared" si="26"/>
         <v>132</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="97">
         <f t="shared" si="26"/>
         <v>133</v>
@@ -28362,7 +28362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="97">
         <f t="shared" si="26"/>
         <v>134</v>
@@ -28432,7 +28432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="97">
         <f t="shared" si="26"/>
         <v>135</v>
@@ -28502,7 +28502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="97">
         <f t="shared" si="26"/>
         <v>136</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="97">
         <f t="shared" si="26"/>
         <v>137</v>
@@ -28642,7 +28642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="97">
         <f t="shared" si="26"/>
         <v>138</v>
@@ -28712,7 +28712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="97">
         <f t="shared" si="26"/>
         <v>139</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="97">
         <f t="shared" si="26"/>
         <v>140</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="97">
         <f t="shared" si="26"/>
         <v>141</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="97">
         <f t="shared" si="26"/>
         <v>142</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="97">
         <f t="shared" si="26"/>
         <v>143</v>
@@ -29062,7 +29062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="97">
         <f t="shared" si="26"/>
         <v>144</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="97">
         <f t="shared" si="26"/>
         <v>145</v>
@@ -29202,7 +29202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="97">
         <f t="shared" si="26"/>
         <v>146</v>
@@ -29272,7 +29272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="97">
         <f t="shared" si="26"/>
         <v>147</v>
@@ -29342,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="97">
         <f t="shared" si="26"/>
         <v>148</v>
@@ -29412,7 +29412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="97">
         <f t="shared" si="26"/>
         <v>149</v>
@@ -29482,7 +29482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="97">
         <f t="shared" si="26"/>
         <v>150</v>
@@ -29552,7 +29552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="97">
         <f t="shared" si="26"/>
         <v>151</v>
@@ -29622,7 +29622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="97">
         <f t="shared" si="26"/>
         <v>152</v>
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="97">
         <f t="shared" si="26"/>
         <v>153</v>
@@ -29762,7 +29762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="97">
         <f t="shared" si="26"/>
         <v>154</v>
@@ -29832,7 +29832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="97">
         <f t="shared" si="26"/>
         <v>155</v>
@@ -29902,7 +29902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="97">
         <f t="shared" si="26"/>
         <v>156</v>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="97">
         <f t="shared" si="26"/>
         <v>157</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="97">
         <f t="shared" si="26"/>
         <v>158</v>
@@ -30112,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="97">
         <f t="shared" si="26"/>
         <v>159</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="97">
         <f t="shared" si="26"/>
         <v>160</v>
@@ -30252,7 +30252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="97">
         <f t="shared" si="26"/>
         <v>161</v>
@@ -30322,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="97">
         <f t="shared" si="26"/>
         <v>162</v>
@@ -30392,7 +30392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="97">
         <f t="shared" si="26"/>
         <v>163</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="97">
         <f t="shared" si="26"/>
         <v>164</v>
@@ -30532,7 +30532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="97">
         <f t="shared" si="26"/>
         <v>165</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="97">
         <f t="shared" si="26"/>
         <v>166</v>
@@ -30672,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="97">
         <f t="shared" si="26"/>
         <v>167</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="97">
         <f t="shared" si="26"/>
         <v>168</v>
@@ -30812,7 +30812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="97">
         <f t="shared" si="26"/>
         <v>169</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="97">
         <f t="shared" si="26"/>
         <v>170</v>
@@ -30952,7 +30952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="97">
         <f t="shared" si="26"/>
         <v>171</v>
@@ -31022,7 +31022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="97">
         <f t="shared" si="26"/>
         <v>172</v>
@@ -31092,7 +31092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="97">
         <f t="shared" si="26"/>
         <v>173</v>
@@ -31162,7 +31162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="97">
         <f t="shared" si="26"/>
         <v>174</v>
@@ -31232,7 +31232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="97">
         <f t="shared" si="26"/>
         <v>175</v>
@@ -31302,7 +31302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="97">
         <f t="shared" si="26"/>
         <v>176</v>
@@ -31372,7 +31372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="97">
         <f t="shared" si="26"/>
         <v>177</v>
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="97">
         <f t="shared" si="26"/>
         <v>178</v>
@@ -31512,7 +31512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="97">
         <f t="shared" si="26"/>
         <v>179</v>
@@ -31582,7 +31582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="97">
         <f t="shared" si="26"/>
         <v>180</v>
@@ -31652,7 +31652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="97">
         <f t="shared" si="26"/>
         <v>181</v>
@@ -31722,7 +31722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="97">
         <f t="shared" si="26"/>
         <v>182</v>
@@ -31792,7 +31792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="97">
         <f t="shared" si="26"/>
         <v>183</v>
@@ -31862,7 +31862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="97">
         <f t="shared" si="26"/>
         <v>184</v>
@@ -31932,7 +31932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="97">
         <f t="shared" si="26"/>
         <v>185</v>
@@ -32002,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="97">
         <f t="shared" si="26"/>
         <v>186</v>
@@ -32072,7 +32072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="97">
         <f t="shared" si="26"/>
         <v>187</v>
@@ -32142,7 +32142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="97">
         <f t="shared" si="26"/>
         <v>188</v>
@@ -32212,7 +32212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="97">
         <f t="shared" si="26"/>
         <v>189</v>
@@ -32282,7 +32282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="97">
         <f t="shared" si="26"/>
         <v>190</v>
@@ -32352,7 +32352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="97">
         <f t="shared" si="26"/>
         <v>191</v>
@@ -32422,7 +32422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="97">
         <f t="shared" si="26"/>
         <v>192</v>
@@ -32492,7 +32492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="97">
         <f t="shared" si="26"/>
         <v>193</v>
@@ -32562,7 +32562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="97">
         <f t="shared" si="26"/>
         <v>194</v>
@@ -32632,7 +32632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="97">
         <f t="shared" ref="A197:A237" si="33">A196+1</f>
         <v>195</v>
@@ -32702,7 +32702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="97">
         <f t="shared" si="33"/>
         <v>196</v>
@@ -32772,7 +32772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="97">
         <f t="shared" si="33"/>
         <v>197</v>
@@ -32842,7 +32842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="97">
         <f t="shared" si="33"/>
         <v>198</v>
@@ -32912,7 +32912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="97">
         <f t="shared" si="33"/>
         <v>199</v>
@@ -32982,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="97">
         <f t="shared" si="33"/>
         <v>200</v>
@@ -33052,7 +33052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="97">
         <f t="shared" si="33"/>
         <v>201</v>
@@ -33122,7 +33122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="97">
         <f t="shared" si="33"/>
         <v>202</v>
@@ -33192,7 +33192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="97">
         <f t="shared" si="33"/>
         <v>203</v>
@@ -33262,7 +33262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="97">
         <f t="shared" si="33"/>
         <v>204</v>
@@ -33333,7 +33333,7 @@
       </c>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="97">
         <f t="shared" si="33"/>
         <v>205</v>
@@ -33403,7 +33403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="97">
         <f t="shared" si="33"/>
         <v>206</v>
@@ -33473,7 +33473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="97">
         <f t="shared" si="33"/>
         <v>207</v>
@@ -33543,7 +33543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="97">
         <f t="shared" si="33"/>
         <v>208</v>
@@ -33613,7 +33613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="97">
         <f t="shared" si="33"/>
         <v>209</v>
@@ -33683,7 +33683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="97">
         <f t="shared" si="33"/>
         <v>210</v>
@@ -33753,7 +33753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="97">
         <f t="shared" si="33"/>
         <v>211</v>
@@ -33823,7 +33823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="97">
         <f t="shared" si="33"/>
         <v>212</v>
@@ -33893,7 +33893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="97">
         <f t="shared" si="33"/>
         <v>213</v>
@@ -33963,7 +33963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="97">
         <f t="shared" si="33"/>
         <v>214</v>
@@ -34033,7 +34033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="97">
         <f t="shared" si="33"/>
         <v>215</v>
@@ -34103,7 +34103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="97">
         <f t="shared" si="33"/>
         <v>216</v>
@@ -34173,7 +34173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="97">
         <f t="shared" si="33"/>
         <v>217</v>
@@ -34243,7 +34243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="97">
         <f t="shared" si="33"/>
         <v>218</v>
@@ -34313,7 +34313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="97">
         <f t="shared" si="33"/>
         <v>219</v>
@@ -34383,7 +34383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="97">
         <f t="shared" si="33"/>
         <v>220</v>
@@ -34453,7 +34453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="97">
         <f t="shared" si="33"/>
         <v>221</v>
@@ -34523,7 +34523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="97">
         <f t="shared" si="33"/>
         <v>222</v>
@@ -34593,7 +34593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="97">
         <f t="shared" si="33"/>
         <v>223</v>
@@ -34663,7 +34663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="97">
         <f t="shared" si="33"/>
         <v>224</v>
@@ -34733,7 +34733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="97">
         <f t="shared" si="33"/>
         <v>225</v>
@@ -34803,7 +34803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="97">
         <f t="shared" si="33"/>
         <v>226</v>
@@ -34873,7 +34873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="97">
         <f t="shared" si="33"/>
         <v>227</v>
@@ -34943,7 +34943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="97">
         <f t="shared" si="33"/>
         <v>228</v>
@@ -35013,7 +35013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="97">
         <f t="shared" si="33"/>
         <v>229</v>
@@ -35083,7 +35083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="97">
         <f t="shared" si="33"/>
         <v>230</v>
@@ -35153,7 +35153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="97">
         <f t="shared" si="33"/>
         <v>231</v>
@@ -35223,7 +35223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="97">
         <f t="shared" si="33"/>
         <v>232</v>
@@ -35293,7 +35293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="97">
         <f t="shared" si="33"/>
         <v>233</v>
@@ -35363,7 +35363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="97">
         <f t="shared" si="33"/>
         <v>234</v>
@@ -35433,7 +35433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="97">
         <f t="shared" si="33"/>
         <v>235</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="144" t="s">
         <v>68</v>
       </c>
@@ -35568,20 +35568,20 @@
       <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="26.5" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -35628,7 +35628,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="102">
         <v>1</v>
       </c>
@@ -35675,7 +35675,7 @@
         <v>48.538600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="102">
         <v>2</v>
       </c>
@@ -35722,7 +35722,7 @@
         <v>75.895600000000016</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="102">
         <v>4</v>
       </c>
@@ -35769,7 +35769,7 @@
         <v>180.52100000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="102">
         <v>6</v>
       </c>
@@ -35816,7 +35816,7 @@
         <v>182.83100000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="102">
         <v>7</v>
       </c>
@@ -35846,7 +35846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="102">
         <v>8</v>
       </c>
@@ -35876,7 +35876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="102">
         <v>9</v>
       </c>
@@ -35906,7 +35906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="102">
         <v>10</v>
       </c>
@@ -35936,7 +35936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="102">
         <v>11</v>
       </c>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="102">
         <v>12</v>
       </c>
@@ -35996,7 +35996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="102">
         <v>13</v>
       </c>
@@ -36026,7 +36026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="102">
         <v>14</v>
       </c>
@@ -36056,7 +36056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="102">
         <v>15</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="102">
         <v>16</v>
       </c>
@@ -36116,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="102">
         <v>17</v>
       </c>
@@ -36146,7 +36146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="102">
         <v>18</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="102">
         <v>19</v>
       </c>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="102">
         <v>20</v>
       </c>
@@ -36236,7 +36236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="102">
         <v>21</v>
       </c>
@@ -36266,7 +36266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="102">
         <v>22</v>
       </c>
@@ -36296,7 +36296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="102">
         <v>23</v>
       </c>
@@ -36326,7 +36326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="102">
         <v>24</v>
       </c>
@@ -36356,7 +36356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="102">
         <v>25</v>
       </c>
@@ -36386,7 +36386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="102">
         <v>26</v>
       </c>
@@ -36416,7 +36416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="102">
         <v>27</v>
       </c>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="102">
         <v>28</v>
       </c>
@@ -36476,7 +36476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="102">
         <v>29</v>
       </c>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="102">
         <v>30</v>
       </c>
@@ -36536,7 +36536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="102">
         <v>31</v>
       </c>
@@ -36566,7 +36566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="102">
         <v>32</v>
       </c>
@@ -36596,7 +36596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="102">
         <v>33</v>
       </c>
@@ -36626,7 +36626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="102">
         <v>34</v>
       </c>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="102">
         <v>35</v>
       </c>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="102">
         <v>36</v>
       </c>
@@ -36716,7 +36716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="102">
         <v>37</v>
       </c>
@@ -36746,7 +36746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="102">
         <v>38</v>
       </c>
@@ -36776,7 +36776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="102">
         <v>39</v>
       </c>
@@ -36806,7 +36806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="102">
         <v>40</v>
       </c>
@@ -36836,7 +36836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="102">
         <v>41</v>
       </c>
@@ -36866,7 +36866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="102">
         <v>42</v>
       </c>
@@ -36896,7 +36896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="102">
         <v>43</v>
       </c>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="102">
         <v>44</v>
       </c>
@@ -36956,7 +36956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="102">
         <v>45</v>
       </c>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="102">
         <v>46</v>
       </c>
@@ -37016,7 +37016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="102">
         <v>47</v>
       </c>
@@ -37046,7 +37046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="102">
         <v>48</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="102">
         <v>49</v>
       </c>
@@ -37106,7 +37106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="102">
         <v>50</v>
       </c>
@@ -37136,7 +37136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="102">
         <v>51</v>
       </c>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="107">
         <v>52</v>
       </c>
@@ -37196,7 +37196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="L52" s="96">
         <f>SUM(L2:L51)</f>
         <v>2.2400000000000002</v>
@@ -37226,24 +37226,24 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="37" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="37"/>
-    <col min="5" max="5" width="20.7109375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="37"/>
-    <col min="9" max="9" width="25.7109375" style="37" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="37"/>
-    <col min="12" max="12" width="23.7109375" style="37" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="37" customWidth="1"/>
-    <col min="14" max="16384" width="9.28515625" style="37"/>
+    <col min="1" max="1" width="35.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="37" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" style="37"/>
+    <col min="5" max="5" width="20.6640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="37"/>
+    <col min="9" max="9" width="25.6640625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="37"/>
+    <col min="12" max="12" width="23.6640625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="9.33203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I1" s="214" t="s">
         <v>32</v>
       </c>
@@ -37271,7 +37271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>34</v>
       </c>
@@ -37305,7 +37305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>36</v>
       </c>
@@ -37351,7 +37351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="41" t="s">
         <v>41</v>
       </c>
@@ -37394,7 +37394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="52" t="s">
         <v>42</v>
       </c>
@@ -37441,7 +37441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>44</v>
       </c>
@@ -37488,7 +37488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
         <v>46</v>
       </c>
@@ -37535,7 +37535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>48</v>
       </c>
@@ -37582,7 +37582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="41" t="s">
         <v>50</v>
       </c>
@@ -37625,7 +37625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="53" t="s">
         <v>51</v>
       </c>
@@ -37662,7 +37662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
         <v>53</v>
       </c>
@@ -37694,7 +37694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I12" s="51">
         <v>4</v>
       </c>
@@ -37722,7 +37722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I13" s="51">
         <v>5</v>
       </c>
@@ -37750,7 +37750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I14" s="51">
         <v>6</v>
       </c>
@@ -37778,7 +37778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I15" s="51">
         <v>7</v>
       </c>
@@ -37806,7 +37806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I16" s="51">
         <v>8</v>
       </c>
@@ -37834,7 +37834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I17" s="51">
         <v>9</v>
       </c>
@@ -37843,7 +37843,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I18" s="51">
         <v>10</v>
       </c>
@@ -37852,7 +37852,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I19" s="51">
         <v>12</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I20" s="51">
         <v>16</v>
       </c>
@@ -37870,7 +37870,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I21" s="51">
         <v>20</v>
       </c>
@@ -37879,16 +37879,16 @@
         <v>13.799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="I23" s="54"/>
       <c r="J23" s="54"/>
     </row>
-    <row r="24" spans="1:20" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="230" t="s">
         <v>54</v>
       </c>
@@ -37909,7 +37909,7 @@
       <c r="P25" s="231"/>
       <c r="Q25" s="232"/>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="162">
@@ -37967,7 +37967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>83</v>
       </c>
@@ -38047,7 +38047,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="s">
         <v>84</v>
       </c>
@@ -38127,7 +38127,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="86" t="s">
         <v>86</v>
       </c>
@@ -38207,7 +38207,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="142" t="s">
         <v>85</v>
       </c>
@@ -38278,7 +38278,7 @@
       <c r="S30" s="56"/>
       <c r="T30" s="56"/>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
         <v>87</v>
       </c>
@@ -38337,7 +38337,7 @@
       <c r="S31" s="56"/>
       <c r="T31" s="56"/>
     </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
         <v>88</v>
       </c>
@@ -38396,7 +38396,7 @@
       <c r="S32" s="56"/>
       <c r="T32" s="56"/>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="86" t="s">
         <v>89</v>
       </c>
@@ -38467,7 +38467,7 @@
       <c r="S33" s="56"/>
       <c r="T33" s="56"/>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="86" t="s">
         <v>52</v>
       </c>
